--- a/data/input_excel/DBLP_toxic_language.xlsx
+++ b/data/input_excel/DBLP_toxic_language.xlsx
@@ -375,26 +375,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="79.83203125" customWidth="1"/>
-    <col min="3" max="3" width="65.83203125" customWidth="1"/>
+    <col min="2" max="2" width="89.83203125" customWidth="1"/>
+    <col min="3" max="3" width="66.83203125" customWidth="1"/>
     <col min="4" max="4" width="139.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="5.83203125" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="51.83203125" customWidth="1"/>
+    <col min="10" max="10" width="41.83203125" customWidth="1"/>
     <col min="11" max="11" width="284.83203125" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="105.83203125" customWidth="1"/>
-    <col min="14" max="14" width="35.83203125" customWidth="1"/>
-    <col min="15" max="15" width="37.83203125" customWidth="1"/>
+    <col min="13" max="13" width="103.83203125" customWidth="1"/>
+    <col min="14" max="14" width="34.83203125" customWidth="1"/>
+    <col min="15" max="15" width="33.83203125" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,28 +453,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B2" t="str">
-        <v>Faal F,Schmitt KA,Yu JY</v>
+        <v>Bensalem I,Rosso P,Zitouni H</v>
       </c>
       <c r="C2" t="str">
         <v/>
       </c>
       <c r="D2" t="str">
-        <v>Reward modeling for mitigating toxicity in transformer-based language models</v>
+        <v>Toxic language detection: A systematic review of Arabic datasets</v>
       </c>
       <c r="E2" t="str">
-        <v>Appl. Intell.</v>
+        <v>Expert Syst. J. Knowl. Eng.</v>
       </c>
       <c r="F2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G2" t="str">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H2" t="str">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="str">
-        <v>8421-8435</v>
+        <v/>
       </c>
       <c r="J2" t="str">
         <v/>
@@ -483,13 +483,13 @@
         <v/>
       </c>
       <c r="L2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M2" t="str">
-        <v>https://doi.org/10.1007/s10489-022-03944-z;http://dx.doi.org/10.1007/S10489-022-03944-Z</v>
+        <v>https://doi.org/10.1111/exsy.13551;http://dx.doi.org/10.1111/EXSY.13551</v>
       </c>
       <c r="N2" t="str">
-        <v>10.1007/S10489-022-03944-Z</v>
+        <v>10.1111/EXSY.13551</v>
       </c>
       <c r="O2" t="str">
         <v/>
@@ -500,46 +500,46 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B3" t="str">
-        <v>Jia Y,Wu W,Cao F,Han SC</v>
+        <v>Shahid M,Umair M,Iqbal MA,Rashid M,Akram S,Zubair M</v>
       </c>
       <c r="C3" t="str">
-        <v>Williams B,Chen Y,Neville J</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>In-Game Toxic Language Detection: Shared Task and Attention Residuals (Student Abstract)</v>
+        <v>Leveraging deep learning for toxic comment detection in cursive languages</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>PeerJ Comput. Sci.</v>
       </c>
       <c r="F3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>10</v>
       </c>
       <c r="H3" t="str">
         <v/>
       </c>
       <c r="I3" t="str">
-        <v>16238-16239</v>
+        <v>e2486</v>
       </c>
       <c r="J3" t="str">
-        <v>AAAI Press</v>
+        <v/>
       </c>
       <c r="K3" t="str">
-        <v>Thirty-Seventh AAAI Conference on Artificial Intelligence, AAAI 2023, Thirty-Fifth Conference on Innovative Applications of Artificial Intelligence, IAAI 2023, Thirteenth Symposium on Educational Advances in Artificial Intelligence, EAAI 2023, Washington, DC, USA, February 7-14, 2023</v>
+        <v/>
       </c>
       <c r="L3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M3" t="str">
-        <v>https://doi.org/10.1609/aaai.v37i13.26979;http://dx.doi.org/10.1609/AAAI.V37I13.26979</v>
+        <v>https://doi.org/10.7717/peerj-cs.2486;http://dx.doi.org/10.7717/PEERJ-CS.2486</v>
       </c>
       <c r="N3" t="str">
-        <v>10.1609/AAAI.V37I13.26979</v>
+        <v>10.7717/PEERJ-CS.2486</v>
       </c>
       <c r="O3" t="str">
         <v/>
@@ -553,19 +553,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B4" t="str">
-        <v>Lu J,Xu B,Zhang X,Min C,Yang L,Lin H</v>
+        <v>Zhang J,Wu Q,Xu Y,Cao C,Du Z,Psounis K</v>
       </c>
       <c r="C4" t="str">
-        <v>Rogers A,Boyd-Graber JL,Okazaki N</v>
+        <v>Wooldridge MJ,Dy JG,Natarajan S</v>
       </c>
       <c r="D4" t="str">
-        <v>Facilitating Fine-grained Detection of Chinese Toxic Language: Hierarchical Taxonomy, Resources, and Benchmarks</v>
+        <v>Efficient Toxic Content Detection by Bootstrapping and Distilling Large Language Models</v>
       </c>
       <c r="E4" t="str">
         <v/>
       </c>
       <c r="F4" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -574,22 +574,22 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>16235-16250</v>
+        <v>21779-21787</v>
       </c>
       <c r="J4" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>AAAI Press</v>
       </c>
       <c r="K4" t="str">
-        <v>Proceedings of the 61st Annual Meeting of the Association for Computational Linguistics (Volume 1: Long Papers), ACL 2023, Toronto, Canada, July 9-14, 2023</v>
+        <v>Thirty-Eighth AAAI Conference on Artificial Intelligence, AAAI 2024, Thirty-Sixth Conference on Innovative Applications of Artificial Intelligence, IAAI 2024, Fourteenth Symposium on Educational Advances in Artificial Intelligence, EAAI 2014, February 20-27, 2024, Vancouver, Canada</v>
       </c>
       <c r="L4" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M4" t="str">
-        <v>https://doi.org/10.18653/v1/2023.acl-long.898;http://dx.doi.org/10.18653/V1/2023.ACL-LONG.898</v>
+        <v>https://doi.org/10.1609/aaai.v38i19.30178;http://dx.doi.org/10.1609/AAAI.V38I19.30178</v>
       </c>
       <c r="N4" t="str">
-        <v>10.18653/V1/2023.ACL-LONG.898</v>
+        <v>10.1609/AAAI.V38I19.30178</v>
       </c>
       <c r="O4" t="str">
         <v/>
@@ -603,19 +603,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B5" t="str">
-        <v>Prabhumoye S,Patwary M,Shoeybi M,Catanzaro B</v>
+        <v>Lu J,Xu B,Zhang X,Liu K,Zhang D,Yang L,Lin H</v>
       </c>
       <c r="C5" t="str">
-        <v>Vlachos A,Augenstein I</v>
+        <v>Calzolari N,Kan MY,Hoste V,Lenci A,Sakti S,Xue N</v>
       </c>
       <c r="D5" t="str">
-        <v>Adding Instructions during Pretraining: Effective way of Controlling Toxicity in Language Models</v>
+        <v>Take Its Essence, Discard Its Dross! Debiasing for Toxic Language Detection via Counterfactual Causal Effect</v>
       </c>
       <c r="E5" t="str">
         <v/>
       </c>
       <c r="F5" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -624,22 +624,22 @@
         <v/>
       </c>
       <c r="I5" t="str">
-        <v>2628-2643</v>
+        <v>15566-15578</v>
       </c>
       <c r="J5" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>ELRA and ICCL</v>
       </c>
       <c r="K5" t="str">
-        <v>Proceedings of the 17th Conference of the European Chapter of the Association for Computational Linguistics, EACL 2023, Dubrovnik, Croatia, May 2-6, 2023</v>
+        <v>Proceedings of the 2024 Joint International Conference on Computational Linguistics, Language Resources and Evaluation, LREC/COLING 2024, 20-25 May, 2024, Torino, Italy</v>
       </c>
       <c r="L5" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M5" t="str">
-        <v>https://doi.org/10.18653/v1/2023.eacl-main.193;http://dx.doi.org/10.18653/V1/2023.EACL-MAIN.193</v>
+        <v>https://aclanthology.org/2024.lrec-main.1353</v>
       </c>
       <c r="N5" t="str">
-        <v>10.18653/V1/2023.EACL-MAIN.193</v>
+        <v/>
       </c>
       <c r="O5" t="str">
         <v/>
@@ -653,19 +653,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B6" t="str">
-        <v>Deshpande A,Murahari V,Rajpurohit T,Kalyan A,Narasimhan K</v>
+        <v>Pavlopoulos J,Likas A</v>
       </c>
       <c r="C6" t="str">
-        <v>Bouamor H,Pino J,Bali K</v>
+        <v>Graham Y,Purver M</v>
       </c>
       <c r="D6" t="str">
-        <v>Toxicity in chatgpt: Analyzing persona-assigned language models</v>
+        <v>Polarized Opinion Detection Improves the Detection of Toxic Language</v>
       </c>
       <c r="E6" t="str">
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -674,19 +674,19 @@
         <v/>
       </c>
       <c r="I6" t="str">
-        <v>1236-1270</v>
+        <v>1946-1958</v>
       </c>
       <c r="J6" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
       <c r="K6" t="str">
-        <v>Findings of the Association for Computational Linguistics: EMNLP 2023, Singapore, December 6-10, 2023</v>
+        <v>Proceedings of the 18th Conference of the European Chapter of the Association for Computational Linguistics, EACL 2024 - Volume 1: Long Papers, St. Julian's, Malta, March 17-22, 2024</v>
       </c>
       <c r="L6" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M6" t="str">
-        <v>https://aclanthology.org/2023.findings-emnlp.88</v>
+        <v>https://aclanthology.org/2024.eacl-long.117</v>
       </c>
       <c r="N6" t="str">
         <v/>
@@ -703,19 +703,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B7" t="str">
-        <v>Wen J,Ke P,Sun H,Zhang Z,Li C,Bai J,Huang M</v>
+        <v>Xiao Y,Hu Y,Choo KT,Lee RK</v>
       </c>
       <c r="C7" t="str">
-        <v>Bouamor H,Pino J,Bali K</v>
+        <v>Al-Onaizan Y,Bansal M,Chen YN</v>
       </c>
       <c r="D7" t="str">
-        <v>Unveiling the Implicit Toxicity in Large Language Models</v>
+        <v>ToxiCloakCN: Evaluating Robustness of Offensive Language Detection in Chinese with Cloaking Perturbations</v>
       </c>
       <c r="E7" t="str">
         <v/>
       </c>
       <c r="F7" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -724,19 +724,19 @@
         <v/>
       </c>
       <c r="I7" t="str">
-        <v>1322-1338</v>
+        <v>6012-6025</v>
       </c>
       <c r="J7" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
       <c r="K7" t="str">
-        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing, EMNLP 2023, Singapore, December 6-10, 2023</v>
+        <v>Proceedings of the 2024 Conference on Empirical Methods in Natural Language Processing, EMNLP 2024, Miami, FL, USA, November 12-16, 2024</v>
       </c>
       <c r="L7" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M7" t="str">
-        <v>https://aclanthology.org/2023.emnlp-main.84</v>
+        <v>https://aclanthology.org/2024.emnlp-main.345</v>
       </c>
       <c r="N7" t="str">
         <v/>
@@ -753,19 +753,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B8" t="str">
-        <v>de Paula AF,Rosso P,Spina D</v>
+        <v>Balestriero R,Cosentino R,Shekkizhar S</v>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</v>
+        <v>Characterizing Large Language Model Geometry Helps Solve Toxicity Detection and Generation</v>
       </c>
       <c r="E8" t="str">
         <v/>
       </c>
       <c r="F8" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -774,22 +774,22 @@
         <v/>
       </c>
       <c r="I8" t="str">
-        <v>1-8</v>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <v>IEEE</v>
+        <v>OpenReview.net</v>
       </c>
       <c r="K8" t="str">
-        <v>International Joint Conference on Neural Networks, IJCNN 2023, Gold Coast, Australia, June 18-23, 2023</v>
+        <v>Forty-first International Conference on Machine Learning, ICML 2024, Vienna, Austria, July 21-27, 2024</v>
       </c>
       <c r="L8" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M8" t="str">
-        <v>https://doi.org/10.1109/IJCNN54540.2023.10191347;http://dx.doi.org/10.1109/IJCNN54540.2023.10191347</v>
+        <v>https://openreview.net/forum?id=glfcwSsks8</v>
       </c>
       <c r="N8" t="str">
-        <v>10.1109/IJCNN54540.2023.10191347</v>
+        <v/>
       </c>
       <c r="O8" t="str">
         <v/>
@@ -800,102 +800,102 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B9" t="str">
-        <v>Prabhumoye S,Patwary M,Shoeybi M,Catanzaro B</v>
+        <v>Liu Y,Yu J,Sun H,Shi L,Deng G,Chen Y,Liu Y</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>Filkov V,Ray B,Zhou M</v>
       </c>
       <c r="D9" t="str">
-        <v>Adding Instructions during Pretraining: Effective Way of Controlling Toxicity in Language Models</v>
+        <v>Efficient Detection of Toxic Prompts in Large Language Models</v>
       </c>
       <c r="E9" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F9" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G9" t="str">
-        <v>abs/2302.07388</v>
+        <v/>
       </c>
       <c r="H9" t="str">
         <v/>
       </c>
       <c r="I9" t="str">
-        <v/>
+        <v>455-467</v>
       </c>
       <c r="J9" t="str">
-        <v/>
+        <v>ACM</v>
       </c>
       <c r="K9" t="str">
-        <v/>
+        <v>Proceedings of the 39th IEEE/ACM International Conference on Automated Software Engineering, ASE 2024, Sacramento, CA, USA, October 27 - November 1, 2024</v>
       </c>
       <c r="L9" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M9" t="str">
-        <v>https://doi.org/10.48550/arXiv.2302.07388;http://dx.doi.org/10.48550/ARXIV.2302.07388</v>
+        <v>https://doi.org/10.1145/3691620.3695018;http://dx.doi.org/10.1145/3691620.3695018</v>
       </c>
       <c r="N9" t="str">
-        <v>10.48550/ARXIV.2302.07388</v>
+        <v>10.1145/3691620.3695018</v>
       </c>
       <c r="O9" t="str">
         <v/>
       </c>
       <c r="P9" t="str">
-        <v>2302.07388</v>
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B10" t="str">
-        <v>Deshpande A,Murahari V,Rajpurohit T,Kalyan A,Narasimhan K</v>
+        <v>da Silva Oliveira A,de Carvalho Cecote T,Alvarenga JP,de Souza Freitas VL,da Silva Luz EJ</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Gamallo P,Claro DB,Teixeira AJ,Real L,García M,Oliveira HG,Amaro R</v>
       </c>
       <c r="D10" t="str">
-        <v>Toxicity in ChatGPT: Analyzing Persona-assigned Language Models</v>
+        <v>Toxic Speech Detection in Portuguese: A Comparative Study of Large Language Models</v>
       </c>
       <c r="E10" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F10" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G10" t="str">
-        <v>abs/2304.05335</v>
+        <v/>
       </c>
       <c r="H10" t="str">
         <v/>
       </c>
       <c r="I10" t="str">
-        <v/>
+        <v>108-116</v>
       </c>
       <c r="J10" t="str">
-        <v/>
+        <v>Association for Computational Lingustics</v>
       </c>
       <c r="K10" t="str">
-        <v/>
+        <v>Proceedings of the 16th International Conference on Computational Processing of Portuguese, PROPOR 2024, Santiago de Compostela, Galicia/Spain, 12-15 March, 2024</v>
       </c>
       <c r="L10" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M10" t="str">
-        <v>https://doi.org/10.48550/arXiv.2304.05335;http://dx.doi.org/10.48550/ARXIV.2304.05335</v>
+        <v>https://aclanthology.org/2024.propor-1.11</v>
       </c>
       <c r="N10" t="str">
-        <v>10.48550/ARXIV.2304.05335</v>
+        <v/>
       </c>
       <c r="O10" t="str">
         <v/>
       </c>
       <c r="P10" t="str">
-        <v>2304.05335</v>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -903,22 +903,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B11" t="str">
-        <v>Nada AH,Latif S,Qadir J</v>
+        <v>Lu J,Xu B,Zhang X,Liu K,Zhang D,Yang L,Lin H</v>
       </c>
       <c r="C11" t="str">
         <v/>
       </c>
       <c r="D11" t="str">
-        <v>Lightweight Toxicity Detection in Spoken Language: A Transformer-based Approach for Edge Devices</v>
+        <v>Take its Essence, Discard its Dross! Debiasing for Toxic Language Detection via Counterfactual Causal Effect</v>
       </c>
       <c r="E11" t="str">
         <v>CoRR</v>
       </c>
       <c r="F11" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G11" t="str">
-        <v>abs/2304.11408</v>
+        <v>abs/2406.00983</v>
       </c>
       <c r="H11" t="str">
         <v/>
@@ -933,19 +933,19 @@
         <v/>
       </c>
       <c r="L11" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M11" t="str">
-        <v>https://doi.org/10.48550/arXiv.2304.11408;http://dx.doi.org/10.48550/ARXIV.2304.11408</v>
+        <v>https://doi.org/10.48550/arXiv.2406.00983;http://dx.doi.org/10.48550/ARXIV.2406.00983</v>
       </c>
       <c r="N11" t="str">
-        <v>10.48550/ARXIV.2304.11408</v>
+        <v>10.48550/ARXIV.2406.00983</v>
       </c>
       <c r="O11" t="str">
         <v/>
       </c>
       <c r="P11" t="str">
-        <v>2304.11408</v>
+        <v>2406.00983</v>
       </c>
     </row>
     <row r="12">
@@ -953,22 +953,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B12" t="str">
-        <v>Lu J,Xu B,Zhang X,Min C,Yang L,Lin H</v>
+        <v>Xiao Y,Hu Y,Choo KT,Lee RK</v>
       </c>
       <c r="C12" t="str">
         <v/>
       </c>
       <c r="D12" t="str">
-        <v>Facilitating Fine-grained Detection of Chinese Toxic Language: Hierarchical Taxonomy, Resources, and Benchmarks</v>
+        <v>ToxiCloakCN: Evaluating Robustness of Offensive Language Detection in Chinese with Cloaking Perturbations</v>
       </c>
       <c r="E12" t="str">
         <v>CoRR</v>
       </c>
       <c r="F12" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G12" t="str">
-        <v>abs/2305.04446</v>
+        <v>abs/2406.12223</v>
       </c>
       <c r="H12" t="str">
         <v/>
@@ -983,19 +983,19 @@
         <v/>
       </c>
       <c r="L12" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M12" t="str">
-        <v>https://doi.org/10.48550/arXiv.2305.04446;http://dx.doi.org/10.48550/ARXIV.2305.04446</v>
+        <v>https://doi.org/10.48550/arXiv.2406.12223;http://dx.doi.org/10.48550/ARXIV.2406.12223</v>
       </c>
       <c r="N12" t="str">
-        <v>10.48550/ARXIV.2305.04446</v>
+        <v>10.48550/ARXIV.2406.12223</v>
       </c>
       <c r="O12" t="str">
         <v/>
       </c>
       <c r="P12" t="str">
-        <v>2305.04446</v>
+        <v>2406.12223</v>
       </c>
     </row>
     <row r="13">
@@ -1003,22 +1003,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B13" t="str">
-        <v>de Paula AF,Rosso P,Spina D</v>
+        <v>Liu Y,Yu J,Sun H,Shi L,Deng G,Chen Y,Liu Y</v>
       </c>
       <c r="C13" t="str">
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</v>
+        <v>Efficient Detection of Toxic Prompts in Large Language Models</v>
       </c>
       <c r="E13" t="str">
         <v>CoRR</v>
       </c>
       <c r="F13" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G13" t="str">
-        <v>abs/2307.03377</v>
+        <v>abs/2408.11727</v>
       </c>
       <c r="H13" t="str">
         <v/>
@@ -1033,19 +1033,19 @@
         <v/>
       </c>
       <c r="L13" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M13" t="str">
-        <v>https://doi.org/10.48550/arXiv.2307.03377;http://dx.doi.org/10.48550/ARXIV.2307.03377</v>
+        <v>https://doi.org/10.48550/arXiv.2408.11727;http://dx.doi.org/10.48550/ARXIV.2408.11727</v>
       </c>
       <c r="N13" t="str">
-        <v>10.48550/ARXIV.2307.03377</v>
+        <v>10.48550/ARXIV.2408.11727</v>
       </c>
       <c r="O13" t="str">
         <v/>
       </c>
       <c r="P13" t="str">
-        <v>2307.03377</v>
+        <v>2408.11727</v>
       </c>
     </row>
     <row r="14">
@@ -1053,22 +1053,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B14" t="str">
-        <v>He X,Zannettou S,Shen Y,Zhang Y</v>
+        <v>Faisal F,Rahman MM,Anastasopoulos A</v>
       </c>
       <c r="C14" t="str">
         <v/>
       </c>
       <c r="D14" t="str">
-        <v>You Only Prompt Once: On the Capabilities of Prompt Learning on Large Language Models to Tackle Toxic Content</v>
+        <v>Dialectal Toxicity Detection: Evaluating LLM-as-a-Judge Consistency Across Language Varieties</v>
       </c>
       <c r="E14" t="str">
         <v>CoRR</v>
       </c>
       <c r="F14" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G14" t="str">
-        <v>abs/2308.05596</v>
+        <v>abs/2411.10954</v>
       </c>
       <c r="H14" t="str">
         <v/>
@@ -1083,169 +1083,169 @@
         <v/>
       </c>
       <c r="L14" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M14" t="str">
-        <v>https://doi.org/10.48550/arXiv.2308.05596;http://dx.doi.org/10.48550/ARXIV.2308.05596</v>
+        <v>https://doi.org/10.48550/arXiv.2411.10954;http://dx.doi.org/10.48550/ARXIV.2411.10954</v>
       </c>
       <c r="N14" t="str">
-        <v>10.48550/ARXIV.2308.05596</v>
+        <v>10.48550/ARXIV.2411.10954</v>
       </c>
       <c r="O14" t="str">
         <v/>
       </c>
       <c r="P14" t="str">
-        <v>2308.05596</v>
+        <v>2411.10954</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B15" t="str">
-        <v>Wen J,Ke P,Sun H,Zhang Z,Li C,Bai J,Huang M</v>
+        <v>Jia Y,Wu W,Cao F,Han SC</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>Williams B,Chen Y,Neville J</v>
       </c>
       <c r="D15" t="str">
-        <v>Unveiling the Implicit Toxicity in Large Language Models</v>
+        <v>In-Game Toxic Language Detection: Shared Task and Attention Residuals (Student Abstract)</v>
       </c>
       <c r="E15" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F15" t="str">
         <v>2023</v>
       </c>
       <c r="G15" t="str">
-        <v>abs/2311.17391</v>
+        <v/>
       </c>
       <c r="H15" t="str">
         <v/>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>16238-16239</v>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>AAAI Press</v>
       </c>
       <c r="K15" t="str">
-        <v/>
+        <v>Thirty-Seventh AAAI Conference on Artificial Intelligence, AAAI 2023, Thirty-Fifth Conference on Innovative Applications of Artificial Intelligence, IAAI 2023, Thirteenth Symposium on Educational Advances in Artificial Intelligence, EAAI 2023, Washington, DC, USA, February 7-14, 2023</v>
       </c>
       <c r="L15" t="str">
         <v>2023</v>
       </c>
       <c r="M15" t="str">
-        <v>https://doi.org/10.48550/arXiv.2311.17391;http://dx.doi.org/10.48550/ARXIV.2311.17391</v>
+        <v>https://doi.org/10.1609/aaai.v37i13.26979;http://dx.doi.org/10.1609/AAAI.V37I13.26979</v>
       </c>
       <c r="N15" t="str">
-        <v>10.48550/ARXIV.2311.17391</v>
+        <v>10.1609/AAAI.V37I13.26979</v>
       </c>
       <c r="O15" t="str">
         <v/>
       </c>
       <c r="P15" t="str">
-        <v>2311.17391</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B16" t="str">
-        <v>Byun S,Jang D,Jo H,Shin H</v>
+        <v>Lu J,Xu B,Zhang X,Min C,Yang L,Lin H</v>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>Rogers A,Boyd-Graber JL,Okazaki N</v>
       </c>
       <c r="D16" t="str">
-        <v>Automatic Construction of a Korean Toxic Instruction Dataset for Ethical Tuning of Large Language Models</v>
+        <v>Facilitating Fine-grained Detection of Chinese Toxic Language: Hierarchical Taxonomy, Resources, and Benchmarks</v>
       </c>
       <c r="E16" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F16" t="str">
         <v>2023</v>
       </c>
       <c r="G16" t="str">
-        <v>abs/2311.18215</v>
+        <v/>
       </c>
       <c r="H16" t="str">
         <v/>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>16235-16250</v>
       </c>
       <c r="J16" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>Proceedings of the 61st Annual Meeting of the Association for Computational Linguistics (Volume 1: Long Papers), ACL 2023, Toronto, Canada, July 9-14, 2023</v>
       </c>
       <c r="L16" t="str">
         <v>2023</v>
       </c>
       <c r="M16" t="str">
-        <v>https://doi.org/10.48550/arXiv.2311.18215;http://dx.doi.org/10.48550/ARXIV.2311.18215</v>
+        <v>https://doi.org/10.18653/v1/2023.acl-long.898;http://dx.doi.org/10.18653/V1/2023.ACL-LONG.898</v>
       </c>
       <c r="N16" t="str">
-        <v>10.48550/ARXIV.2311.18215</v>
+        <v>10.18653/V1/2023.ACL-LONG.898</v>
       </c>
       <c r="O16" t="str">
         <v/>
       </c>
       <c r="P16" t="str">
-        <v>2311.18215</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B17" t="str">
-        <v>Balestriero R,Cosentino R,Shekkizhar S</v>
+        <v>Shrestha A,Kaati L,Akrami N,Lindén K,Moshfegh A</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Prakash BA,Wang D,Weninger T</v>
       </c>
       <c r="D17" t="str">
-        <v>Characterizing Large Language Model Geometry Solves Toxicity Detection and Generation</v>
+        <v>Harmful Communication: Detection of Toxic Language and Threats on Swedish</v>
       </c>
       <c r="E17" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F17" t="str">
         <v>2023</v>
       </c>
       <c r="G17" t="str">
-        <v>abs/2312.01648</v>
+        <v/>
       </c>
       <c r="H17" t="str">
         <v/>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>624-630</v>
       </c>
       <c r="J17" t="str">
-        <v/>
+        <v>ACM</v>
       </c>
       <c r="K17" t="str">
-        <v/>
+        <v>Proceedings of the International Conference on Advances in Social Networks Analysis and Mining, ASONAM 2023, Kusadasi, Turkey, November 6-9, 2023</v>
       </c>
       <c r="L17" t="str">
         <v>2023</v>
       </c>
       <c r="M17" t="str">
-        <v>https://doi.org/10.48550/arXiv.2312.01648;http://dx.doi.org/10.48550/ARXIV.2312.01648</v>
+        <v>https://doi.org/10.1145/3625007.3627597;http://dx.doi.org/10.1145/3625007.3627597</v>
       </c>
       <c r="N17" t="str">
-        <v>10.48550/ARXIV.2312.01648</v>
+        <v>10.1145/3625007.3627597</v>
       </c>
       <c r="O17" t="str">
         <v/>
       </c>
       <c r="P17" t="str">
-        <v>2312.01648</v>
+        <v/>
       </c>
     </row>
     <row r="18">
@@ -1253,46 +1253,46 @@
         <v>Conference Paper</v>
       </c>
       <c r="B18" t="str">
-        <v>Baldini I,Wei D,Ramamurthy KN,Singh M,Yurochkin M</v>
+        <v>M P,K R,Hegde A,Girish K,Coelho S,Shashirekha HL</v>
       </c>
       <c r="C18" t="str">
-        <v>Muresan S,Nakov P,Villavicencio A</v>
+        <v>Ghosh K,Mandl T,Majumder P,Mitra M</v>
       </c>
       <c r="D18" t="str">
-        <v>Your fairness may vary: Pretrained language model fairness in toxic text classification</v>
+        <v>Taming Toxicity: Learning Models for Hate Speech and Offensive Language Detection in Social Media Text</v>
       </c>
       <c r="E18" t="str">
         <v/>
       </c>
       <c r="F18" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>3681</v>
       </c>
       <c r="H18" t="str">
         <v/>
       </c>
       <c r="I18" t="str">
-        <v>2245-2262</v>
+        <v>563-573</v>
       </c>
       <c r="J18" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>CEUR-WS.org</v>
       </c>
       <c r="K18" t="str">
-        <v>Findings of the Association for Computational Linguistics: ACL 2022, Dublin, Ireland, May 22-27, 2022</v>
+        <v>Working Notes of FIRE 2023 - Forum for Information Retrieval Evaluation (FIRE-WN 2023), Goa, India, December 15-18, 2023</v>
       </c>
       <c r="L18" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M18" t="str">
-        <v>https://doi.org/10.18653/v1/2022.findings-acl.176;http://dx.doi.org/10.18653/V1/2022.FINDINGS-ACL.176</v>
+        <v>https://ceur-ws.org/Vol-3681/T6-22.pdf</v>
       </c>
       <c r="N18" t="str">
-        <v>10.18653/V1/2022.FINDINGS-ACL.176</v>
+        <v/>
       </c>
       <c r="O18" t="str">
-        <v/>
+        <v>CEUR Workshop Proceedings</v>
       </c>
       <c r="P18" t="str">
         <v/>
@@ -1303,19 +1303,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B19" t="str">
-        <v>Kaati L,Shrestha A,Akrami N</v>
+        <v>de Paula AF,Rosso P,Spina D</v>
       </c>
       <c r="C19" t="str">
         <v/>
       </c>
       <c r="D19" t="str">
-        <v>A Machine Learning Approach to Identify Toxic Language in the Online Space</v>
+        <v>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</v>
       </c>
       <c r="E19" t="str">
         <v/>
       </c>
       <c r="F19" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -1324,22 +1324,22 @@
         <v/>
       </c>
       <c r="I19" t="str">
-        <v>396-402</v>
+        <v>1-8</v>
       </c>
       <c r="J19" t="str">
         <v>IEEE</v>
       </c>
       <c r="K19" t="str">
-        <v>IEEE/ACM International Conference on Advances in Social Networks Analysis and Mining, ASONAM 2022, Istanbul, Turkey, November 10-13, 2022</v>
+        <v>International Joint Conference on Neural Networks, IJCNN 2023, Gold Coast, Australia, June 18-23, 2023</v>
       </c>
       <c r="L19" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M19" t="str">
-        <v>https://doi.org/10.1109/ASONAM55673.2022.10068619;http://dx.doi.org/10.1109/ASONAM55673.2022.10068619</v>
+        <v>https://doi.org/10.1109/IJCNN54540.2023.10191347;http://dx.doi.org/10.1109/IJCNN54540.2023.10191347</v>
       </c>
       <c r="N19" t="str">
-        <v>10.1109/ASONAM55673.2022.10068619</v>
+        <v>10.1109/IJCNN54540.2023.10191347</v>
       </c>
       <c r="O19" t="str">
         <v/>
@@ -1350,302 +1350,302 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B20" t="str">
-        <v>Nejadgholi I,Balkir E,Fraser KC,Kiritchenko S</v>
+        <v>Nada AH,Latif S,Qadir J</v>
       </c>
       <c r="C20" t="str">
-        <v>Bastings J,Belinkov Y,Elazar Y,Hupkes D,Saphra N,Wiegreffe S</v>
+        <v/>
       </c>
       <c r="D20" t="str">
-        <v>Towards Procedural Fairness: Uncovering Biases in How a Toxic Language Classifier Uses Sentiment Information</v>
+        <v>Lightweight Toxicity Detection in Spoken Language: A Transformer-based Approach for Edge Devices</v>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F20" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v>abs/2304.11408</v>
       </c>
       <c r="H20" t="str">
         <v/>
       </c>
       <c r="I20" t="str">
-        <v>225-237</v>
+        <v/>
       </c>
       <c r="J20" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K20" t="str">
-        <v>Proceedings of the Fifth BlackboxNLP Workshop on Analyzing and Interpreting Neural Networks for NLP, BlackboxNLP@EMNLP 2022, Abu Dhabi, United Arab Emirates (Hybrid), December 8, 2022</v>
+        <v/>
       </c>
       <c r="L20" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M20" t="str">
-        <v>https://doi.org/10.18653/v1/2022.blackboxnlp-1.18;http://dx.doi.org/10.18653/V1/2022.BLACKBOXNLP-1.18</v>
+        <v>https://doi.org/10.48550/arXiv.2304.11408;http://dx.doi.org/10.48550/ARXIV.2304.11408</v>
       </c>
       <c r="N20" t="str">
-        <v>10.18653/V1/2022.BLACKBOXNLP-1.18</v>
+        <v>10.48550/ARXIV.2304.11408</v>
       </c>
       <c r="O20" t="str">
         <v/>
       </c>
       <c r="P20" t="str">
-        <v/>
+        <v>2304.11408</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B21" t="str">
-        <v>Sahoo N,Gupta H,Bhattacharyya P</v>
+        <v>Lu J,Xu B,Zhang X,Min C,Yang L,Lin H</v>
       </c>
       <c r="C21" t="str">
-        <v>Fokkens A,Srikumar V</v>
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v>Detecting Unintended Social Bias in Toxic Language Datasets</v>
+        <v>Facilitating Fine-grained Detection of Chinese Toxic Language: Hierarchical Taxonomy, Resources, and Benchmarks</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F21" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v>abs/2305.04446</v>
       </c>
       <c r="H21" t="str">
         <v/>
       </c>
       <c r="I21" t="str">
-        <v>132-143</v>
+        <v/>
       </c>
       <c r="J21" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K21" t="str">
-        <v>Proceedings of the 26th Conference on Computational Natural Language Learning, CoNLL 2022, Abu Dhabi, United Arab Emirates (Hybrid Event), December 7-8, 2022</v>
+        <v/>
       </c>
       <c r="L21" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M21" t="str">
-        <v>https://aclanthology.org/2022.conll-1.10</v>
+        <v>https://doi.org/10.48550/arXiv.2305.04446;http://dx.doi.org/10.48550/ARXIV.2305.04446</v>
       </c>
       <c r="N21" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2305.04446</v>
       </c>
       <c r="O21" t="str">
         <v/>
       </c>
       <c r="P21" t="str">
-        <v/>
+        <v>2305.04446</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B22" t="str">
-        <v>Oikawa Y,Nakayama Y,Murakami K</v>
+        <v>de Paula AF,Rosso P,Spina D</v>
       </c>
       <c r="C22" t="str">
-        <v>Li Y,Lazaridou A</v>
+        <v/>
       </c>
       <c r="D22" t="str">
-        <v>A Stacking-based Efficient Method for Toxic Language Detection on Live Streaming Chat</v>
+        <v>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F22" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v>abs/2307.03377</v>
       </c>
       <c r="H22" t="str">
         <v/>
       </c>
       <c r="I22" t="str">
-        <v>571-578</v>
+        <v/>
       </c>
       <c r="J22" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K22" t="str">
-        <v>Proceedings of the 2022 Conference on Empirical Methods in Natural Language Processing: EMNLP 2022 - Industry Track, Abu Dhabi, UAE, December 7 - 11, 2022</v>
+        <v/>
       </c>
       <c r="L22" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M22" t="str">
-        <v>https://doi.org/10.18653/v1/2022.emnlp-industry.58;http://dx.doi.org/10.18653/V1/2022.EMNLP-INDUSTRY.58</v>
+        <v>https://doi.org/10.48550/arXiv.2307.03377;http://dx.doi.org/10.48550/ARXIV.2307.03377</v>
       </c>
       <c r="N22" t="str">
-        <v>10.18653/V1/2022.EMNLP-INDUSTRY.58</v>
+        <v>10.48550/ARXIV.2307.03377</v>
       </c>
       <c r="O22" t="str">
         <v/>
       </c>
       <c r="P22" t="str">
-        <v/>
+        <v>2307.03377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B23" t="str">
-        <v>Wingate D,Shoeybi M,Sorensen T</v>
+        <v>Balestriero R,Cosentino R,Shekkizhar S</v>
       </c>
       <c r="C23" t="str">
-        <v>Goldberg Y,Kozareva Z,Zhang Y</v>
+        <v/>
       </c>
       <c r="D23" t="str">
-        <v>Prompt Compression and Contrastive Conditioning for Controllability and Toxicity Reduction in Language Models</v>
+        <v>Characterizing Large Language Model Geometry Solves Toxicity Detection and Generation</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F23" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v>abs/2312.01648</v>
       </c>
       <c r="H23" t="str">
         <v/>
       </c>
       <c r="I23" t="str">
-        <v>5621-5634</v>
+        <v/>
       </c>
       <c r="J23" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K23" t="str">
-        <v>Findings of the Association for Computational Linguistics: EMNLP 2022, Abu Dhabi, United Arab Emirates, December 7-11, 2022</v>
+        <v/>
       </c>
       <c r="L23" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M23" t="str">
-        <v>https://doi.org/10.18653/v1/2022.findings-emnlp.412;http://dx.doi.org/10.18653/V1/2022.FINDINGS-EMNLP.412</v>
+        <v>https://doi.org/10.48550/arXiv.2312.01648;http://dx.doi.org/10.48550/ARXIV.2312.01648</v>
       </c>
       <c r="N23" t="str">
-        <v>10.18653/V1/2022.FINDINGS-EMNLP.412</v>
+        <v>10.48550/ARXIV.2312.01648</v>
       </c>
       <c r="O23" t="str">
         <v/>
       </c>
       <c r="P23" t="str">
-        <v/>
+        <v>2312.01648</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B24" t="str">
-        <v>Caron M,Bäumer FS,Müller O</v>
+        <v>Bensalem I,Rosso P,Zitouni H</v>
       </c>
       <c r="C24" t="str">
         <v/>
       </c>
       <c r="D24" t="str">
-        <v>Towards Automated Moderation: Enabling Toxic Language Detection with Transfer Learning and Attention-Based Models</v>
+        <v>Toxic language detection: a systematic survey of Arabic datasets</v>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F24" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G24" t="str">
-        <v/>
+        <v>abs/2312.07228</v>
       </c>
       <c r="H24" t="str">
         <v/>
       </c>
       <c r="I24" t="str">
-        <v>1-10</v>
+        <v/>
       </c>
       <c r="J24" t="str">
-        <v>ScholarSpace</v>
+        <v/>
       </c>
       <c r="K24" t="str">
-        <v>55th Hawaii International Conference on System Sciences, HICSS 2022, Virtual Event / Maui, Hawaii, USA, January 4-7, 2022</v>
+        <v/>
       </c>
       <c r="L24" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M24" t="str">
-        <v>http://hdl.handle.net/10125/79428</v>
+        <v>https://doi.org/10.48550/arXiv.2312.07228;http://dx.doi.org/10.48550/ARXIV.2312.07228</v>
       </c>
       <c r="N24" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2312.07228</v>
       </c>
       <c r="O24" t="str">
         <v/>
       </c>
       <c r="P24" t="str">
-        <v/>
+        <v>2312.07228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B25" t="str">
-        <v>Park YA,Rudzicz F</v>
+        <v>Zhang J,Wu Q,Xu Y,Cao C,Du Z,Psounis K</v>
       </c>
       <c r="C25" t="str">
-        <v>Chakravarthi BR,Bharathi B,McCrae JP,Zarrouk M,Bali K,Buitelaar P</v>
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>Detoxifying Language Models with a Toxic Corpus</v>
+        <v>Efficient Toxic Content Detection by Bootstrapping and Distilling Large Language Models</v>
       </c>
       <c r="E25" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F25" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>abs/2312.08303</v>
       </c>
       <c r="H25" t="str">
         <v/>
       </c>
       <c r="I25" t="str">
-        <v>41-46</v>
+        <v/>
       </c>
       <c r="J25" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K25" t="str">
-        <v>Proceedings of the Second Workshop on Language Technology for Equality, Diversity and Inclusion, LT-EDI 2022, Dublin, Ireland, May 27, 2022</v>
+        <v/>
       </c>
       <c r="L25" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M25" t="str">
-        <v>https://doi.org/10.18653/v1/2022.ltedi-1.6;http://dx.doi.org/10.18653/V1/2022.LTEDI-1.6</v>
+        <v>https://doi.org/10.48550/arXiv.2312.08303;http://dx.doi.org/10.48550/ARXIV.2312.08303</v>
       </c>
       <c r="N25" t="str">
-        <v>10.18653/V1/2022.LTEDI-1.6</v>
+        <v>10.48550/ARXIV.2312.08303</v>
       </c>
       <c r="O25" t="str">
         <v/>
       </c>
       <c r="P25" t="str">
-        <v/>
+        <v>2312.08303</v>
       </c>
     </row>
     <row r="26">
@@ -1653,13 +1653,13 @@
         <v>Conference Paper</v>
       </c>
       <c r="B26" t="str">
-        <v>Sap M,Swayamdipta S,Vianna L,Zhou X,Choi Y,Smith NA</v>
+        <v>Oikawa Y,Nakayama Y,Murakami K</v>
       </c>
       <c r="C26" t="str">
-        <v>Carpuat M,de Marneffe MC,Ruíz IV</v>
+        <v>Li Y,Lazaridou A</v>
       </c>
       <c r="D26" t="str">
-        <v>Annotators with Attitudes: How Annotator Beliefs And Identities Bias Toxic Language Detection</v>
+        <v>A Stacking-based Efficient Method for Toxic Language Detection on Live Streaming Chat</v>
       </c>
       <c r="E26" t="str">
         <v/>
@@ -1674,22 +1674,22 @@
         <v/>
       </c>
       <c r="I26" t="str">
-        <v>5884-5906</v>
+        <v>571-578</v>
       </c>
       <c r="J26" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
       <c r="K26" t="str">
-        <v>Proceedings of the 2022 Conference of the North American Chapter of the Association for Computational Linguistics: Human Language Technologies, NAACL 2022, Seattle, WA, United States, July 10-15, 2022</v>
+        <v>Proceedings of the 2022 Conference on Empirical Methods in Natural Language Processing: EMNLP 2022 - Industry Track, Abu Dhabi, UAE, December 7 - 11, 2022</v>
       </c>
       <c r="L26" t="str">
         <v>2022</v>
       </c>
       <c r="M26" t="str">
-        <v>https://doi.org/10.18653/v1/2022.naacl-main.431;http://dx.doi.org/10.18653/V1/2022.NAACL-MAIN.431</v>
+        <v>https://doi.org/10.18653/v1/2022.emnlp-industry.58;http://dx.doi.org/10.18653/V1/2022.EMNLP-INDUSTRY.58</v>
       </c>
       <c r="N26" t="str">
-        <v>10.18653/V1/2022.NAACL-MAIN.431</v>
+        <v>10.18653/V1/2022.EMNLP-INDUSTRY.58</v>
       </c>
       <c r="O26" t="str">
         <v/>
@@ -1700,43 +1700,43 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B27" t="str">
-        <v>Faal F,Schmitt KA,Yu JY</v>
+        <v>Caron M,Bäumer FS,Müller O</v>
       </c>
       <c r="C27" t="str">
         <v/>
       </c>
       <c r="D27" t="str">
-        <v>Reward Modeling for Mitigating Toxicity in Transformer-based Language Models</v>
+        <v>Towards Automated Moderation: Enabling Toxic Language Detection with Transfer Learning and Attention-Based Models</v>
       </c>
       <c r="E27" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F27" t="str">
         <v>2022</v>
       </c>
       <c r="G27" t="str">
-        <v>abs/2202.09662</v>
+        <v/>
       </c>
       <c r="H27" t="str">
         <v/>
       </c>
       <c r="I27" t="str">
-        <v/>
+        <v>1-10</v>
       </c>
       <c r="J27" t="str">
-        <v/>
+        <v>ScholarSpace</v>
       </c>
       <c r="K27" t="str">
-        <v/>
+        <v>55th Hawaii International Conference on System Sciences, HICSS 2022, Virtual Event / Maui, Hawaii, USA, January 4-7, 2022</v>
       </c>
       <c r="L27" t="str">
         <v>2022</v>
       </c>
       <c r="M27" t="str">
-        <v>https://arxiv.org/abs/2202.09662</v>
+        <v>http://hdl.handle.net/10125/79428</v>
       </c>
       <c r="N27" t="str">
         <v/>
@@ -1745,57 +1745,57 @@
         <v/>
       </c>
       <c r="P27" t="str">
-        <v>2202.09662</v>
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B28" t="str">
-        <v>Babakov N,Logacheva V,Panchenko A</v>
+        <v>Sap M,Swayamdipta S,Vianna L,Zhou X,Choi Y,Smith NA</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>Carpuat M,de Marneffe MC,Ruíz IV</v>
       </c>
       <c r="D28" t="str">
-        <v>Beyond Plain Toxic: Detection of Inappropriate Statements on Flammable Topics for the Russian Language</v>
+        <v>Annotators with Attitudes: How Annotator Beliefs And Identities Bias Toxic Language Detection</v>
       </c>
       <c r="E28" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F28" t="str">
         <v>2022</v>
       </c>
       <c r="G28" t="str">
-        <v>abs/2203.02392</v>
+        <v/>
       </c>
       <c r="H28" t="str">
         <v/>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>5884-5906</v>
       </c>
       <c r="J28" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K28" t="str">
-        <v/>
+        <v>Proceedings of the 2022 Conference of the North American Chapter of the Association for Computational Linguistics: Human Language Technologies, NAACL 2022, Seattle, WA, United States, July 10-15, 2022</v>
       </c>
       <c r="L28" t="str">
         <v>2022</v>
       </c>
       <c r="M28" t="str">
-        <v>https://doi.org/10.48550/arXiv.2203.02392;http://dx.doi.org/10.48550/ARXIV.2203.02392</v>
+        <v>https://doi.org/10.18653/v1/2022.naacl-main.431;http://dx.doi.org/10.18653/V1/2022.NAACL-MAIN.431</v>
       </c>
       <c r="N28" t="str">
-        <v>10.48550/ARXIV.2203.02392</v>
+        <v>10.18653/V1/2022.NAACL-MAIN.431</v>
       </c>
       <c r="O28" t="str">
         <v/>
       </c>
       <c r="P28" t="str">
-        <v>2203.02392</v>
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -1803,13 +1803,13 @@
         <v>Journal Article</v>
       </c>
       <c r="B29" t="str">
-        <v>Park YA,Rudzicz F</v>
+        <v>Babakov N,Logacheva V,Panchenko A</v>
       </c>
       <c r="C29" t="str">
         <v/>
       </c>
       <c r="D29" t="str">
-        <v>Detoxifying Language Models with a Toxic Corpus</v>
+        <v>Beyond Plain Toxic: Detection of Inappropriate Statements on Flammable Topics for the Russian Language</v>
       </c>
       <c r="E29" t="str">
         <v>CoRR</v>
@@ -1818,7 +1818,7 @@
         <v>2022</v>
       </c>
       <c r="G29" t="str">
-        <v>abs/2205.00320</v>
+        <v>abs/2203.02392</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -1836,16 +1836,16 @@
         <v>2022</v>
       </c>
       <c r="M29" t="str">
-        <v>https://doi.org/10.48550/arXiv.2205.00320;http://dx.doi.org/10.48550/ARXIV.2205.00320</v>
+        <v>https://doi.org/10.48550/arXiv.2203.02392;http://dx.doi.org/10.48550/ARXIV.2203.02392</v>
       </c>
       <c r="N29" t="str">
-        <v>10.48550/ARXIV.2205.00320</v>
+        <v>10.48550/ARXIV.2203.02392</v>
       </c>
       <c r="O29" t="str">
         <v/>
       </c>
       <c r="P29" t="str">
-        <v>2205.00320</v>
+        <v>2203.02392</v>
       </c>
     </row>
     <row r="30">
@@ -1853,13 +1853,13 @@
         <v>Journal Article</v>
       </c>
       <c r="B30" t="str">
-        <v>Wingate D,Shoeybi M,Sorensen T</v>
+        <v>Jia Y,Wu W,Cao F,Han SC</v>
       </c>
       <c r="C30" t="str">
         <v/>
       </c>
       <c r="D30" t="str">
-        <v>Prompt Compression and Contrastive Conditioning for Controllability and Toxicity Reduction in Language Models</v>
+        <v>In-game Toxic Language Detection: Shared Task and Attention Residuals</v>
       </c>
       <c r="E30" t="str">
         <v>CoRR</v>
@@ -1868,7 +1868,7 @@
         <v>2022</v>
       </c>
       <c r="G30" t="str">
-        <v>abs/2210.03162</v>
+        <v>abs/2211.05995</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -1886,210 +1886,210 @@
         <v>2022</v>
       </c>
       <c r="M30" t="str">
-        <v>https://doi.org/10.48550/arXiv.2210.03162;http://dx.doi.org/10.48550/ARXIV.2210.03162</v>
+        <v>https://doi.org/10.48550/arXiv.2211.05995;http://dx.doi.org/10.48550/ARXIV.2211.05995</v>
       </c>
       <c r="N30" t="str">
-        <v>10.48550/ARXIV.2210.03162</v>
+        <v>10.48550/ARXIV.2211.05995</v>
       </c>
       <c r="O30" t="str">
         <v/>
       </c>
       <c r="P30" t="str">
-        <v>2210.03162</v>
+        <v>2211.05995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B31" t="str">
-        <v>Nejadgholi I,Balkir E,Fraser KC,Kiritchenko S</v>
+        <v>Halevy M,Harris C,Bruckman AS,Yang D,Howard AM</v>
       </c>
       <c r="C31" t="str">
         <v/>
       </c>
       <c r="D31" t="str">
-        <v>Towards Procedural Fairness: Uncovering Biases in How a Toxic Language Classifier Uses Sentiment Information</v>
+        <v>Mitigating Racial Biases in Toxic Language Detection with an Equity-Based Ensemble Framework</v>
       </c>
       <c r="E31" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F31" t="str">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G31" t="str">
-        <v>abs/2210.10689</v>
+        <v/>
       </c>
       <c r="H31" t="str">
         <v/>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>7:1-7:11</v>
       </c>
       <c r="J31" t="str">
-        <v/>
+        <v>ACM</v>
       </c>
       <c r="K31" t="str">
-        <v/>
+        <v>EAAMO 2021: ACM Conference on Equity and Access in Algorithms, Mechanisms, and Optimization, Virtual Event, USA, October 5 - 9, 2021</v>
       </c>
       <c r="L31" t="str">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M31" t="str">
-        <v>https://doi.org/10.48550/arXiv.2210.10689;http://dx.doi.org/10.48550/ARXIV.2210.10689</v>
+        <v>https://doi.org/10.1145/3465416.3483299;http://dx.doi.org/10.1145/3465416.3483299</v>
       </c>
       <c r="N31" t="str">
-        <v>10.48550/ARXIV.2210.10689</v>
+        <v>10.1145/3465416.3483299</v>
       </c>
       <c r="O31" t="str">
         <v/>
       </c>
       <c r="P31" t="str">
-        <v>2210.10689</v>
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B32" t="str">
-        <v>Sahoo N,Gupta H,Bhattacharyya P</v>
+        <v>Zhou X,Sap M,Swayamdipta S,Choi Y,Smith NA</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>Merlo P,Tiedemann J,Tsarfaty R</v>
       </c>
       <c r="D32" t="str">
-        <v>Detecting Unintended Social Bias in Toxic Language Datasets</v>
+        <v>Challenges in Automated Debiasing for Toxic Language Detection</v>
       </c>
       <c r="E32" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F32" t="str">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G32" t="str">
-        <v>abs/2210.11762</v>
+        <v/>
       </c>
       <c r="H32" t="str">
         <v/>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>3143-3155</v>
       </c>
       <c r="J32" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>Proceedings of the 16th Conference of the European Chapter of the Association for Computational Linguistics: Main Volume, EACL 2021, Online, April 19 - 23, 2021</v>
       </c>
       <c r="L32" t="str">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M32" t="str">
-        <v>https://doi.org/10.48550/arXiv.2210.11762;http://dx.doi.org/10.48550/ARXIV.2210.11762</v>
+        <v>https://doi.org/10.18653/v1/2021.eacl-main.274;http://dx.doi.org/10.18653/V1/2021.EACL-MAIN.274</v>
       </c>
       <c r="N32" t="str">
-        <v>10.48550/ARXIV.2210.11762</v>
+        <v>10.18653/V1/2021.EACL-MAIN.274</v>
       </c>
       <c r="O32" t="str">
         <v/>
       </c>
       <c r="P32" t="str">
-        <v>2210.11762</v>
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B33" t="str">
-        <v>Jia Y,Wu W,Cao F,Han SC</v>
+        <v>Faal F,Yu JY,Schmitt KA</v>
       </c>
       <c r="C33" t="str">
-        <v/>
+        <v>Rocha AP,Steels L,van den Herik HJ</v>
       </c>
       <c r="D33" t="str">
-        <v>In-game Toxic Language Detection: Shared Task and Attention Residuals</v>
+        <v>Domain Adaptation Multi-task Deep Neural Network for Mitigating Unintended Bias in Toxic Language Detection</v>
       </c>
       <c r="E33" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F33" t="str">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G33" t="str">
-        <v>abs/2211.05995</v>
+        <v/>
       </c>
       <c r="H33" t="str">
         <v/>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>932-940</v>
       </c>
       <c r="J33" t="str">
-        <v/>
+        <v>SCITEPRESS</v>
       </c>
       <c r="K33" t="str">
-        <v/>
+        <v>Proceedings of the 13th International Conference on Agents and Artificial Intelligence, ICAART 2021, Volume 2, Online Streaming, February 4-6, 2021</v>
       </c>
       <c r="L33" t="str">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M33" t="str">
-        <v>https://doi.org/10.48550/arXiv.2211.05995;http://dx.doi.org/10.48550/ARXIV.2211.05995</v>
+        <v>https://doi.org/10.5220/0010266109320940;http://dx.doi.org/10.5220/0010266109320940</v>
       </c>
       <c r="N33" t="str">
-        <v>10.48550/ARXIV.2211.05995</v>
+        <v>10.5220/0010266109320940</v>
       </c>
       <c r="O33" t="str">
         <v/>
       </c>
       <c r="P33" t="str">
-        <v>2211.05995</v>
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B34" t="str">
-        <v>Fortuna P,Soler Company J,Wanner L</v>
+        <v>Faal F,Schmitt KA,Yu JY</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v>How well do hate speech, toxicity, abusive and offensive language classification models generalize across datasets?</v>
+        <v>Protecting marginalized communities by mitigating discrimination in toxic language detection</v>
       </c>
       <c r="E34" t="str">
-        <v>Inf. Process. Manag.</v>
+        <v/>
       </c>
       <c r="F34" t="str">
         <v>2021</v>
       </c>
       <c r="G34" t="str">
-        <v>58</v>
+        <v/>
       </c>
       <c r="H34" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="I34" t="str">
-        <v>102524</v>
+        <v>1-7</v>
       </c>
       <c r="J34" t="str">
-        <v/>
+        <v>IEEE</v>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>IEEE International Symposium on Technology and Society, ISTAS 2021, Waterloo, ON, Canada, October 28-31, 2021</v>
       </c>
       <c r="L34" t="str">
         <v>2021</v>
       </c>
       <c r="M34" t="str">
-        <v>https://doi.org/10.1016/j.ipm.2021.102524;http://dx.doi.org/10.1016/J.IPM.2021.102524</v>
+        <v>https://doi.org/10.1109/ISTAS52410.2021.9629201;http://dx.doi.org/10.1109/ISTAS52410.2021.9629201</v>
       </c>
       <c r="N34" t="str">
-        <v>10.1016/J.IPM.2021.102524</v>
+        <v>10.1109/ISTAS52410.2021.9629201</v>
       </c>
       <c r="O34" t="str">
         <v/>
@@ -2103,13 +2103,13 @@
         <v>Conference Paper</v>
       </c>
       <c r="B35" t="str">
-        <v>Ousidhoum N,Zhao X,Fang T,Song Y,Yeung DY</v>
+        <v>Kotyushev M,Glazkova A,Morozov D</v>
       </c>
       <c r="C35" t="str">
-        <v>Zong C,Xia F,Li W,Navigli R</v>
+        <v>Palmer A,Schneider N,Schluter N,Emerson G,Herbelot A,Zhu X</v>
       </c>
       <c r="D35" t="str">
-        <v>Probing Toxic Content in Large Pre-Trained Language Models</v>
+        <v>MIPT-NSU-UTMN at SemEval-2021 Task 5: Ensembling Learning with Pre-trained Language Models for Toxic Spans Detection</v>
       </c>
       <c r="E35" t="str">
         <v/>
@@ -2124,22 +2124,22 @@
         <v/>
       </c>
       <c r="I35" t="str">
-        <v>4262-4274</v>
+        <v>913-918</v>
       </c>
       <c r="J35" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
       <c r="K35" t="str">
-        <v>Proceedings of the 59th Annual Meeting of the Association for Computational Linguistics and the 11th International Joint Conference on Natural Language Processing, ACL/IJCNLP 2021, (Volume 1: Long Papers), Virtual Event, August 1-6, 2021</v>
+        <v>Proceedings of the 15th International Workshop on Semantic Evaluation, SemEval@ACL/IJCNLP 2021, Virtual Event / Bangkok, Thailand, August 5-6, 2021</v>
       </c>
       <c r="L35" t="str">
         <v>2021</v>
       </c>
       <c r="M35" t="str">
-        <v>https://doi.org/10.18653/v1/2021.acl-long.329;http://dx.doi.org/10.18653/V1/2021.ACL-LONG.329</v>
+        <v>https://doi.org/10.18653/v1/2021.semeval-1.124;http://dx.doi.org/10.18653/V1/2021.SEMEVAL-1.124</v>
       </c>
       <c r="N35" t="str">
-        <v>10.18653/V1/2021.ACL-LONG.329</v>
+        <v>10.18653/V1/2021.SEMEVAL-1.124</v>
       </c>
       <c r="O35" t="str">
         <v/>
@@ -2153,13 +2153,13 @@
         <v>Conference Paper</v>
       </c>
       <c r="B36" t="str">
-        <v>Halevy M,Harris C,Bruckman AS,Yang D,Howard AM</v>
+        <v>Sharma M,Kandasamy I,Vasantha WB</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>Palmer A,Schneider N,Schluter N,Emerson G,Herbelot A,Zhu X</v>
       </c>
       <c r="D36" t="str">
-        <v>Mitigating Racial Biases in Toxic Language Detection with an Equity-Based Ensemble Framework</v>
+        <v>YoungSheldon at SemEval-2021 Task 5: Fine-tuning Pre-trained Language Models for Toxic Spans Detection using Token classification Objective</v>
       </c>
       <c r="E36" t="str">
         <v/>
@@ -2174,22 +2174,22 @@
         <v/>
       </c>
       <c r="I36" t="str">
-        <v>7:1-7:11</v>
+        <v>953-959</v>
       </c>
       <c r="J36" t="str">
-        <v>ACM</v>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K36" t="str">
-        <v>EAAMO 2021: ACM Conference on Equity and Access in Algorithms, Mechanisms, and Optimization, Virtual Event, USA, October 5 - 9, 2021</v>
+        <v>Proceedings of the 15th International Workshop on Semantic Evaluation, SemEval@ACL/IJCNLP 2021, Virtual Event / Bangkok, Thailand, August 5-6, 2021</v>
       </c>
       <c r="L36" t="str">
         <v>2021</v>
       </c>
       <c r="M36" t="str">
-        <v>https://doi.org/10.1145/3465416.3483299;http://dx.doi.org/10.1145/3465416.3483299</v>
+        <v>https://doi.org/10.18653/v1/2021.semeval-1.130;http://dx.doi.org/10.18653/V1/2021.SEMEVAL-1.130</v>
       </c>
       <c r="N36" t="str">
-        <v>10.1145/3465416.3483299</v>
+        <v>10.18653/V1/2021.SEMEVAL-1.130</v>
       </c>
       <c r="O36" t="str">
         <v/>
@@ -2200,293 +2200,293 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B37" t="str">
-        <v>Zhou X,Sap M,Swayamdipta S,Choi Y,Smith NA</v>
+        <v>Zhou X,Sap M,Swayamdipta S,Smith NA,Choi Y</v>
       </c>
       <c r="C37" t="str">
-        <v>Merlo P,Tiedemann J,Tsarfaty R</v>
+        <v/>
       </c>
       <c r="D37" t="str">
         <v>Challenges in Automated Debiasing for Toxic Language Detection</v>
       </c>
       <c r="E37" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F37" t="str">
         <v>2021</v>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>abs/2102.00086</v>
       </c>
       <c r="H37" t="str">
         <v/>
       </c>
       <c r="I37" t="str">
-        <v>3143-3155</v>
+        <v/>
       </c>
       <c r="J37" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K37" t="str">
-        <v>Proceedings of the 16th Conference of the European Chapter of the Association for Computational Linguistics: Main Volume, EACL 2021, Online, April 19 - 23, 2021</v>
+        <v/>
       </c>
       <c r="L37" t="str">
         <v>2021</v>
       </c>
       <c r="M37" t="str">
-        <v>https://doi.org/10.18653/v1/2021.eacl-main.274;http://dx.doi.org/10.18653/V1/2021.EACL-MAIN.274</v>
+        <v>https://arxiv.org/abs/2102.00086</v>
       </c>
       <c r="N37" t="str">
-        <v>10.18653/V1/2021.EACL-MAIN.274</v>
+        <v/>
       </c>
       <c r="O37" t="str">
         <v/>
       </c>
       <c r="P37" t="str">
-        <v/>
+        <v>2102.00086</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B38" t="str">
-        <v>Bhat MM,Hosseini S,Awadallah AH,Bennett PN,Li W</v>
+        <v>Kotyushev M,Glazkova A,Morozov D</v>
       </c>
       <c r="C38" t="str">
-        <v>Moens MF,Huang X,Specia L,Yih SW</v>
+        <v/>
       </c>
       <c r="D38" t="str">
-        <v>Say 'YES' to Positivity: Detecting Toxic Language in Workplace Communications</v>
+        <v>MIPT-NSU-UTMN at SemEval-2021 Task 5: Ensembling Learning with Pre-trained Language Models for Toxic Spans Detection</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F38" t="str">
         <v>2021</v>
       </c>
       <c r="G38" t="str">
-        <v/>
+        <v>abs/2104.04739</v>
       </c>
       <c r="H38" t="str">
         <v/>
       </c>
       <c r="I38" t="str">
-        <v>2017-2029</v>
+        <v/>
       </c>
       <c r="J38" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K38" t="str">
-        <v>Findings of the Association for Computational Linguistics: EMNLP 2021, Virtual Event / Punta Cana, Dominican Republic, 16-20 November, 2021</v>
+        <v/>
       </c>
       <c r="L38" t="str">
         <v>2021</v>
       </c>
       <c r="M38" t="str">
-        <v>https://doi.org/10.18653/v1/2021.findings-emnlp.173;http://dx.doi.org/10.18653/V1/2021.FINDINGS-EMNLP.173</v>
+        <v>https://arxiv.org/abs/2104.04739</v>
       </c>
       <c r="N38" t="str">
-        <v>10.18653/V1/2021.FINDINGS-EMNLP.173</v>
+        <v/>
       </c>
       <c r="O38" t="str">
         <v/>
       </c>
       <c r="P38" t="str">
-        <v/>
+        <v>2104.04739</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B39" t="str">
-        <v>Yousefi M,Emmanouilidou D</v>
+        <v>Excell E,Moubayed NA</v>
       </c>
       <c r="C39" t="str">
         <v/>
       </c>
       <c r="D39" t="str">
-        <v>Audio-based Toxic Language Classification using Self-attentive Convolutional Neural Network</v>
+        <v>Towards Equal Gender Representation in the Annotations of Toxic Language Detection</v>
       </c>
       <c r="E39" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F39" t="str">
         <v>2021</v>
       </c>
       <c r="G39" t="str">
-        <v/>
+        <v>abs/2106.02183</v>
       </c>
       <c r="H39" t="str">
         <v/>
       </c>
       <c r="I39" t="str">
-        <v>11-15</v>
+        <v/>
       </c>
       <c r="J39" t="str">
-        <v>IEEE</v>
+        <v/>
       </c>
       <c r="K39" t="str">
-        <v>29th European Signal Processing Conference, EUSIPCO 2021, Dublin, Ireland, August 23-27, 2021</v>
+        <v/>
       </c>
       <c r="L39" t="str">
         <v>2021</v>
       </c>
       <c r="M39" t="str">
-        <v>https://doi.org/10.23919/EUSIPCO54536.2021.9616001;http://dx.doi.org/10.23919/EUSIPCO54536.2021.9616001</v>
+        <v>https://arxiv.org/abs/2106.02183</v>
       </c>
       <c r="N39" t="str">
-        <v>10.23919/EUSIPCO54536.2021.9616001</v>
+        <v/>
       </c>
       <c r="O39" t="str">
         <v/>
       </c>
       <c r="P39" t="str">
-        <v/>
+        <v>2106.02183</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B40" t="str">
-        <v>Faal F,Yu JY,Schmitt KA</v>
+        <v>Chuang YS,Gao M,Luo H,Glass JR,Lee HY,Chen YN,Li SW</v>
       </c>
       <c r="C40" t="str">
-        <v>Rocha AP,Steels L,van den Herik HJ</v>
+        <v/>
       </c>
       <c r="D40" t="str">
-        <v>Domain Adaptation Multi-task Deep Neural Network for Mitigating Unintended Bias in Toxic Language Detection</v>
+        <v>Mitigating Biases in Toxic Language Detection through Invariant Rationalization</v>
       </c>
       <c r="E40" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F40" t="str">
         <v>2021</v>
       </c>
       <c r="G40" t="str">
-        <v/>
+        <v>abs/2106.07240</v>
       </c>
       <c r="H40" t="str">
         <v/>
       </c>
       <c r="I40" t="str">
-        <v>932-940</v>
+        <v/>
       </c>
       <c r="J40" t="str">
-        <v>SCITEPRESS</v>
+        <v/>
       </c>
       <c r="K40" t="str">
-        <v>Proceedings of the 13th International Conference on Agents and Artificial Intelligence, ICAART 2021, Volume 2, Online Streaming, February 4-6, 2021</v>
+        <v/>
       </c>
       <c r="L40" t="str">
         <v>2021</v>
       </c>
       <c r="M40" t="str">
-        <v>https://doi.org/10.5220/0010266109320940;http://dx.doi.org/10.5220/0010266109320940</v>
+        <v>https://arxiv.org/abs/2106.07240</v>
       </c>
       <c r="N40" t="str">
-        <v>10.5220/0010266109320940</v>
+        <v/>
       </c>
       <c r="O40" t="str">
         <v/>
       </c>
       <c r="P40" t="str">
-        <v/>
+        <v>2106.07240</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B41" t="str">
-        <v>Faal F,Schmitt KA,Yu JY</v>
+        <v>Halevy M,Harris C,Bruckman AS,Yang D,Howard AM</v>
       </c>
       <c r="C41" t="str">
         <v/>
       </c>
       <c r="D41" t="str">
-        <v>Protecting marginalized communities by mitigating discrimination in toxic language detection</v>
+        <v>Mitigating Racial Biases in Toxic Language Detection with an Equity-Based Ensemble Framework</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F41" t="str">
         <v>2021</v>
       </c>
       <c r="G41" t="str">
-        <v/>
+        <v>abs/2109.13137</v>
       </c>
       <c r="H41" t="str">
         <v/>
       </c>
       <c r="I41" t="str">
-        <v>1-7</v>
+        <v/>
       </c>
       <c r="J41" t="str">
-        <v>IEEE</v>
+        <v/>
       </c>
       <c r="K41" t="str">
-        <v>IEEE International Symposium on Technology and Society, ISTAS 2021, Waterloo, ON, Canada, October 28-31, 2021</v>
+        <v/>
       </c>
       <c r="L41" t="str">
         <v>2021</v>
       </c>
       <c r="M41" t="str">
-        <v>https://doi.org/10.1109/ISTAS52410.2021.9629201;http://dx.doi.org/10.1109/ISTAS52410.2021.9629201</v>
+        <v>https://arxiv.org/abs/2109.13137</v>
       </c>
       <c r="N41" t="str">
-        <v>10.1109/ISTAS52410.2021.9629201</v>
+        <v/>
       </c>
       <c r="O41" t="str">
         <v/>
       </c>
       <c r="P41" t="str">
-        <v/>
+        <v>2109.13137</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B42" t="str">
-        <v>Gawron C,Schmidt S</v>
+        <v>Sap M,Swayamdipta S,Vianna L,Zhou X,Choi Y,Smith NA</v>
       </c>
       <c r="C42" t="str">
-        <v>Risch J,Stoll A,Wilms L,Wiegand M</v>
+        <v/>
       </c>
       <c r="D42" t="str">
-        <v>FH-SWF SG at GermEval 2021: Using Transformer-Based Language Models to Identify Toxic, Engaging, &amp; Fact-Claiming Comments</v>
+        <v>Annotators with Attitudes: How Annotator Beliefs And Identities Bias Toxic Language Detection</v>
       </c>
       <c r="E42" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F42" t="str">
         <v>2021</v>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>abs/2111.07997</v>
       </c>
       <c r="H42" t="str">
         <v/>
       </c>
       <c r="I42" t="str">
-        <v>19-24</v>
+        <v/>
       </c>
       <c r="J42" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K42" t="str">
-        <v>Proceedings of the GermEval 2021 Shared Task on the Identification of Toxic, Engaging, and Fact-Claiming Comments, GermEval@KONVENS 2021, Düsseldorf, Germany, September 6, 2021</v>
+        <v/>
       </c>
       <c r="L42" t="str">
         <v>2021</v>
       </c>
       <c r="M42" t="str">
-        <v>https://aclanthology.org/2021.germeval-1.3</v>
+        <v>https://arxiv.org/abs/2111.07997</v>
       </c>
       <c r="N42" t="str">
         <v/>
@@ -2495,7 +2495,7 @@
         <v/>
       </c>
       <c r="P42" t="str">
-        <v/>
+        <v>2111.07997</v>
       </c>
     </row>
     <row r="43">
@@ -2503,19 +2503,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B43" t="str">
-        <v>Kotyushev M,Glazkova A,Morozov D</v>
+        <v>Leite JA,Silva DF,Bontcheva K,Scarton C</v>
       </c>
       <c r="C43" t="str">
-        <v>Palmer A,Schneider N,Schluter N,Emerson G,Herbelot A,Zhu X</v>
+        <v>Wong KF,Knight K,Wu H</v>
       </c>
       <c r="D43" t="str">
-        <v>MIPT-NSU-UTMN at SemEval-2021 Task 5: Ensembling Learning with Pre-trained Language Models for Toxic Spans Detection</v>
+        <v>Toxic Language Detection in Social Media for Brazilian Portuguese: New Dataset and Multilingual Analysis</v>
       </c>
       <c r="E43" t="str">
         <v/>
       </c>
       <c r="F43" t="str">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -2524,22 +2524,22 @@
         <v/>
       </c>
       <c r="I43" t="str">
-        <v>913-918</v>
+        <v>914-924</v>
       </c>
       <c r="J43" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
       <c r="K43" t="str">
-        <v>Proceedings of the 15th International Workshop on Semantic Evaluation, SemEval@ACL/IJCNLP 2021, Virtual Event / Bangkok, Thailand, August 5-6, 2021</v>
+        <v>Proceedings of the 1st Conference of the Asia-Pacific Chapter of the Association for Computational Linguistics and the 10th International Joint Conference on Natural Language Processing, AACL/IJCNLP 2020, Suzhou, China, December 4-7, 2020</v>
       </c>
       <c r="L43" t="str">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M43" t="str">
-        <v>https://doi.org/10.18653/v1/2021.semeval-1.124;http://dx.doi.org/10.18653/V1/2021.SEMEVAL-1.124</v>
+        <v>https://aclanthology.org/2020.aacl-main.91/</v>
       </c>
       <c r="N43" t="str">
-        <v>10.18653/V1/2021.SEMEVAL-1.124</v>
+        <v/>
       </c>
       <c r="O43" t="str">
         <v/>
@@ -2553,46 +2553,46 @@
         <v>Conference Paper</v>
       </c>
       <c r="B44" t="str">
-        <v>Sharma M,Kandasamy I,Vasantha WB</v>
+        <v>Makhnytkina O,Matveev A,Bogoradnikova D,Lizunova I,Maltseva A,Shilkina N</v>
       </c>
       <c r="C44" t="str">
-        <v>Palmer A,Schneider N,Schluter N,Emerson G,Herbelot A,Zhu X</v>
+        <v>Karpov A,Potapova R</v>
       </c>
       <c r="D44" t="str">
-        <v>YoungSheldon at SemEval-2021 Task 5: Fine-tuning Pre-trained Language Models for Toxic Spans Detection using Token classification Objective</v>
+        <v>Detection of Toxic Language in Short Text Messages</v>
       </c>
       <c r="E44" t="str">
         <v/>
       </c>
       <c r="F44" t="str">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G44" t="str">
-        <v/>
+        <v>12335</v>
       </c>
       <c r="H44" t="str">
         <v/>
       </c>
       <c r="I44" t="str">
-        <v>953-959</v>
+        <v>315-325</v>
       </c>
       <c r="J44" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>Springer</v>
       </c>
       <c r="K44" t="str">
-        <v>Proceedings of the 15th International Workshop on Semantic Evaluation, SemEval@ACL/IJCNLP 2021, Virtual Event / Bangkok, Thailand, August 5-6, 2021</v>
+        <v>Speech and Computer - 22nd International Conference, SPECOM 2020, St. Petersburg, Russia, October 7-9, 2020, Proceedings</v>
       </c>
       <c r="L44" t="str">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M44" t="str">
-        <v>https://doi.org/10.18653/v1/2021.semeval-1.130;http://dx.doi.org/10.18653/V1/2021.SEMEVAL-1.130</v>
+        <v>https://doi.org/10.1007/978-3-030-60276-5_31;http://dx.doi.org/10.1007/978-3-030-60276-5_31</v>
       </c>
       <c r="N44" t="str">
-        <v>10.18653/V1/2021.SEMEVAL-1.130</v>
+        <v>10.1007/978-3-030-60276-5_31</v>
       </c>
       <c r="O44" t="str">
-        <v/>
+        <v>Lecture Notes in Computer Science</v>
       </c>
       <c r="P44" t="str">
         <v/>
@@ -2600,1257 +2600,57 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B45" t="str">
-        <v>Yan E,Madabushi HT</v>
+        <v>Leite JA,Silva DF,Bontcheva K,Scarton C</v>
       </c>
       <c r="C45" t="str">
-        <v>Palmer A,Schneider N,Schluter N,Emerson G,Herbelot A,Zhu X</v>
+        <v/>
       </c>
       <c r="D45" t="str">
-        <v>UoB at SemEval-2021 Task 5: Extending Pre-Trained Language Models to Include Task and Domain-Specific Information for Toxic Span Prediction</v>
+        <v>Toxic Language Detection in Social Media for Brazilian Portuguese: New Dataset and Multilingual Analysis</v>
       </c>
       <c r="E45" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F45" t="str">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G45" t="str">
-        <v/>
+        <v>abs/2010.04543</v>
       </c>
       <c r="H45" t="str">
         <v/>
       </c>
       <c r="I45" t="str">
-        <v>243-248</v>
+        <v/>
       </c>
       <c r="J45" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K45" t="str">
-        <v>Proceedings of the 15th International Workshop on Semantic Evaluation, SemEval@ACL/IJCNLP 2021, Virtual Event / Bangkok, Thailand, August 5-6, 2021</v>
+        <v/>
       </c>
       <c r="L45" t="str">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M45" t="str">
-        <v>https://doi.org/10.18653/v1/2021.semeval-1.28;http://dx.doi.org/10.18653/V1/2021.SEMEVAL-1.28</v>
+        <v>https://arxiv.org/abs/2010.04543</v>
       </c>
       <c r="N45" t="str">
-        <v>10.18653/V1/2021.SEMEVAL-1.28</v>
+        <v/>
       </c>
       <c r="O45" t="str">
         <v/>
       </c>
       <c r="P45" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Conference Paper</v>
-      </c>
-      <c r="B46" t="str">
-        <v>Zhao Z,Zhang Z,Hopfgartner F</v>
-      </c>
-      <c r="C46" t="str">
-        <v>Leskovec J,Grobelnik M,Najork M,Tang J,Zia L</v>
-      </c>
-      <c r="D46" t="str">
-        <v>A Comparative Study of Using Pre-trained Language Models for Toxic Comment Classification</v>
-      </c>
-      <c r="E46" t="str">
-        <v/>
-      </c>
-      <c r="F46" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G46" t="str">
-        <v/>
-      </c>
-      <c r="H46" t="str">
-        <v/>
-      </c>
-      <c r="I46" t="str">
-        <v>500-507</v>
-      </c>
-      <c r="J46" t="str">
-        <v>ACM / IW3C2</v>
-      </c>
-      <c r="K46" t="str">
-        <v>Companion of The Web Conference 2021, Virtual Event / Ljubljana, Slovenia, April 19-23, 2021</v>
-      </c>
-      <c r="L46" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M46" t="str">
-        <v>https://doi.org/10.1145/3442442.3452313;http://dx.doi.org/10.1145/3442442.3452313</v>
-      </c>
-      <c r="N46" t="str">
-        <v>10.1145/3442442.3452313</v>
-      </c>
-      <c r="O46" t="str">
-        <v/>
-      </c>
-      <c r="P46" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B47" t="str">
-        <v>Zhou X,Sap M,Swayamdipta S,Smith NA,Choi Y</v>
-      </c>
-      <c r="C47" t="str">
-        <v/>
-      </c>
-      <c r="D47" t="str">
-        <v>Challenges in Automated Debiasing for Toxic Language Detection</v>
-      </c>
-      <c r="E47" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F47" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G47" t="str">
-        <v>abs/2102.00086</v>
-      </c>
-      <c r="H47" t="str">
-        <v/>
-      </c>
-      <c r="I47" t="str">
-        <v/>
-      </c>
-      <c r="J47" t="str">
-        <v/>
-      </c>
-      <c r="K47" t="str">
-        <v/>
-      </c>
-      <c r="L47" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M47" t="str">
-        <v>https://arxiv.org/abs/2102.00086</v>
-      </c>
-      <c r="N47" t="str">
-        <v/>
-      </c>
-      <c r="O47" t="str">
-        <v/>
-      </c>
-      <c r="P47" t="str">
-        <v>2102.00086</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B48" t="str">
-        <v>Kotyushev M,Glazkova A,Morozov D</v>
-      </c>
-      <c r="C48" t="str">
-        <v/>
-      </c>
-      <c r="D48" t="str">
-        <v>MIPT-NSU-UTMN at SemEval-2021 Task 5: Ensembling Learning with Pre-trained Language Models for Toxic Spans Detection</v>
-      </c>
-      <c r="E48" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F48" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G48" t="str">
-        <v>abs/2104.04739</v>
-      </c>
-      <c r="H48" t="str">
-        <v/>
-      </c>
-      <c r="I48" t="str">
-        <v/>
-      </c>
-      <c r="J48" t="str">
-        <v/>
-      </c>
-      <c r="K48" t="str">
-        <v/>
-      </c>
-      <c r="L48" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M48" t="str">
-        <v>https://arxiv.org/abs/2104.04739</v>
-      </c>
-      <c r="N48" t="str">
-        <v/>
-      </c>
-      <c r="O48" t="str">
-        <v/>
-      </c>
-      <c r="P48" t="str">
-        <v>2104.04739</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B49" t="str">
-        <v>Excell E,Moubayed NA</v>
-      </c>
-      <c r="C49" t="str">
-        <v/>
-      </c>
-      <c r="D49" t="str">
-        <v>Towards Equal Gender Representation in the Annotations of Toxic Language Detection</v>
-      </c>
-      <c r="E49" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F49" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G49" t="str">
-        <v>abs/2106.02183</v>
-      </c>
-      <c r="H49" t="str">
-        <v/>
-      </c>
-      <c r="I49" t="str">
-        <v/>
-      </c>
-      <c r="J49" t="str">
-        <v/>
-      </c>
-      <c r="K49" t="str">
-        <v/>
-      </c>
-      <c r="L49" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M49" t="str">
-        <v>https://arxiv.org/abs/2106.02183</v>
-      </c>
-      <c r="N49" t="str">
-        <v/>
-      </c>
-      <c r="O49" t="str">
-        <v/>
-      </c>
-      <c r="P49" t="str">
-        <v>2106.02183</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B50" t="str">
-        <v>Chuang YS,Gao M,Luo H,Glass JR,Lee HY,Chen YN,Li SW</v>
-      </c>
-      <c r="C50" t="str">
-        <v/>
-      </c>
-      <c r="D50" t="str">
-        <v>Mitigating Biases in Toxic Language Detection through Invariant Rationalization</v>
-      </c>
-      <c r="E50" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F50" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G50" t="str">
-        <v>abs/2106.07240</v>
-      </c>
-      <c r="H50" t="str">
-        <v/>
-      </c>
-      <c r="I50" t="str">
-        <v/>
-      </c>
-      <c r="J50" t="str">
-        <v/>
-      </c>
-      <c r="K50" t="str">
-        <v/>
-      </c>
-      <c r="L50" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M50" t="str">
-        <v>https://arxiv.org/abs/2106.07240</v>
-      </c>
-      <c r="N50" t="str">
-        <v/>
-      </c>
-      <c r="O50" t="str">
-        <v/>
-      </c>
-      <c r="P50" t="str">
-        <v>2106.07240</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Baldini I,Wei D,Ramamurthy KN,Yurochkin M,Singh M</v>
-      </c>
-      <c r="C51" t="str">
-        <v/>
-      </c>
-      <c r="D51" t="str">
-        <v>Your fairness may vary: Group fairness of pretrained language models in toxic text classification</v>
-      </c>
-      <c r="E51" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F51" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G51" t="str">
-        <v>abs/2108.01250</v>
-      </c>
-      <c r="H51" t="str">
-        <v/>
-      </c>
-      <c r="I51" t="str">
-        <v/>
-      </c>
-      <c r="J51" t="str">
-        <v/>
-      </c>
-      <c r="K51" t="str">
-        <v/>
-      </c>
-      <c r="L51" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M51" t="str">
-        <v>https://arxiv.org/abs/2108.01250</v>
-      </c>
-      <c r="N51" t="str">
-        <v/>
-      </c>
-      <c r="O51" t="str">
-        <v/>
-      </c>
-      <c r="P51" t="str">
-        <v>2108.01250</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B52" t="str">
-        <v>Gawron C,Schmidt S</v>
-      </c>
-      <c r="C52" t="str">
-        <v/>
-      </c>
-      <c r="D52" t="str">
-        <v>FH-SWF SG at GermEval 2021: Using Transformer-Based Language Models to Identify Toxic, Engaging, &amp; Fact-Claiming Comments</v>
-      </c>
-      <c r="E52" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F52" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G52" t="str">
-        <v>abs/2109.02966</v>
-      </c>
-      <c r="H52" t="str">
-        <v/>
-      </c>
-      <c r="I52" t="str">
-        <v/>
-      </c>
-      <c r="J52" t="str">
-        <v/>
-      </c>
-      <c r="K52" t="str">
-        <v/>
-      </c>
-      <c r="L52" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M52" t="str">
-        <v>https://arxiv.org/abs/2109.02966</v>
-      </c>
-      <c r="N52" t="str">
-        <v/>
-      </c>
-      <c r="O52" t="str">
-        <v/>
-      </c>
-      <c r="P52" t="str">
-        <v>2109.02966</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B53" t="str">
-        <v>Halevy M,Harris C,Bruckman AS,Yang D,Howard AM</v>
-      </c>
-      <c r="C53" t="str">
-        <v/>
-      </c>
-      <c r="D53" t="str">
-        <v>Mitigating Racial Biases in Toxic Language Detection with an Equity-Based Ensemble Framework</v>
-      </c>
-      <c r="E53" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F53" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G53" t="str">
-        <v>abs/2109.13137</v>
-      </c>
-      <c r="H53" t="str">
-        <v/>
-      </c>
-      <c r="I53" t="str">
-        <v/>
-      </c>
-      <c r="J53" t="str">
-        <v/>
-      </c>
-      <c r="K53" t="str">
-        <v/>
-      </c>
-      <c r="L53" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M53" t="str">
-        <v>https://arxiv.org/abs/2109.13137</v>
-      </c>
-      <c r="N53" t="str">
-        <v/>
-      </c>
-      <c r="O53" t="str">
-        <v/>
-      </c>
-      <c r="P53" t="str">
-        <v>2109.13137</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B54" t="str">
-        <v>Yan E,Madabushi HT</v>
-      </c>
-      <c r="C54" t="str">
-        <v/>
-      </c>
-      <c r="D54" t="str">
-        <v>UoB at SemEval-2021 Task 5: Extending Pre-Trained Language Models to Include Task and Domain-Specific Information for Toxic Span Prediction</v>
-      </c>
-      <c r="E54" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F54" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G54" t="str">
-        <v>abs/2110.03730</v>
-      </c>
-      <c r="H54" t="str">
-        <v/>
-      </c>
-      <c r="I54" t="str">
-        <v/>
-      </c>
-      <c r="J54" t="str">
-        <v/>
-      </c>
-      <c r="K54" t="str">
-        <v/>
-      </c>
-      <c r="L54" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M54" t="str">
-        <v>https://arxiv.org/abs/2110.03730</v>
-      </c>
-      <c r="N54" t="str">
-        <v/>
-      </c>
-      <c r="O54" t="str">
-        <v/>
-      </c>
-      <c r="P54" t="str">
-        <v>2110.03730</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B55" t="str">
-        <v>Ghosh S,Lepcha S,Sakshi S,Shah RR</v>
-      </c>
-      <c r="C55" t="str">
-        <v/>
-      </c>
-      <c r="D55" t="str">
-        <v>Speech Toxicity Analysis: A New Spoken Language Processing Task</v>
-      </c>
-      <c r="E55" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F55" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G55" t="str">
-        <v>abs/2110.07592</v>
-      </c>
-      <c r="H55" t="str">
-        <v/>
-      </c>
-      <c r="I55" t="str">
-        <v/>
-      </c>
-      <c r="J55" t="str">
-        <v/>
-      </c>
-      <c r="K55" t="str">
-        <v/>
-      </c>
-      <c r="L55" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M55" t="str">
-        <v>https://arxiv.org/abs/2110.07592</v>
-      </c>
-      <c r="N55" t="str">
-        <v/>
-      </c>
-      <c r="O55" t="str">
-        <v/>
-      </c>
-      <c r="P55" t="str">
-        <v>2110.07592</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Sap M,Swayamdipta S,Vianna L,Zhou X,Choi Y,Smith NA</v>
-      </c>
-      <c r="C56" t="str">
-        <v/>
-      </c>
-      <c r="D56" t="str">
-        <v>Annotators with Attitudes: How Annotator Beliefs And Identities Bias Toxic Language Detection</v>
-      </c>
-      <c r="E56" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F56" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G56" t="str">
-        <v>abs/2111.07997</v>
-      </c>
-      <c r="H56" t="str">
-        <v/>
-      </c>
-      <c r="I56" t="str">
-        <v/>
-      </c>
-      <c r="J56" t="str">
-        <v/>
-      </c>
-      <c r="K56" t="str">
-        <v/>
-      </c>
-      <c r="L56" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M56" t="str">
-        <v>https://arxiv.org/abs/2111.07997</v>
-      </c>
-      <c r="N56" t="str">
-        <v/>
-      </c>
-      <c r="O56" t="str">
-        <v/>
-      </c>
-      <c r="P56" t="str">
-        <v>2111.07997</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B57" t="str">
-        <v>Wang A,Sudhakar M,Ji Y</v>
-      </c>
-      <c r="C57" t="str">
-        <v/>
-      </c>
-      <c r="D57" t="str">
-        <v>Simple Text Detoxification by Identifying a Linear Toxic Subspace in Language Model Embeddings</v>
-      </c>
-      <c r="E57" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F57" t="str">
-        <v>2021</v>
-      </c>
-      <c r="G57" t="str">
-        <v>abs/2112.08346</v>
-      </c>
-      <c r="H57" t="str">
-        <v/>
-      </c>
-      <c r="I57" t="str">
-        <v/>
-      </c>
-      <c r="J57" t="str">
-        <v/>
-      </c>
-      <c r="K57" t="str">
-        <v/>
-      </c>
-      <c r="L57" t="str">
-        <v>2021</v>
-      </c>
-      <c r="M57" t="str">
-        <v>https://arxiv.org/abs/2112.08346</v>
-      </c>
-      <c r="N57" t="str">
-        <v/>
-      </c>
-      <c r="O57" t="str">
-        <v/>
-      </c>
-      <c r="P57" t="str">
-        <v>2112.08346</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>Conference Paper</v>
-      </c>
-      <c r="B58" t="str">
-        <v>Gehman S,Gururangan S,Sap M,Choi Y,Smith NA</v>
-      </c>
-      <c r="C58" t="str">
-        <v>Cohn T,He Y,Liu Y</v>
-      </c>
-      <c r="D58" t="str">
-        <v>RealToxicityPrompts: Evaluating Neural Toxic Degeneration in Language Models</v>
-      </c>
-      <c r="E58" t="str">
-        <v/>
-      </c>
-      <c r="F58" t="str">
-        <v>2020</v>
-      </c>
-      <c r="G58" t="str">
-        <v>EMNLP 2020</v>
-      </c>
-      <c r="H58" t="str">
-        <v/>
-      </c>
-      <c r="I58" t="str">
-        <v>3356-3369</v>
-      </c>
-      <c r="J58" t="str">
-        <v>Association for Computational Linguistics</v>
-      </c>
-      <c r="K58" t="str">
-        <v>Findings of the Association for Computational Linguistics: EMNLP 2020, Online Event, 16-20 November 2020</v>
-      </c>
-      <c r="L58" t="str">
-        <v>2020</v>
-      </c>
-      <c r="M58" t="str">
-        <v>https://doi.org/10.18653/v1/2020.findings-emnlp.301;http://dx.doi.org/10.18653/V1/2020.FINDINGS-EMNLP.301</v>
-      </c>
-      <c r="N58" t="str">
-        <v>10.18653/V1/2020.FINDINGS-EMNLP.301</v>
-      </c>
-      <c r="O58" t="str">
-        <v>Findings of ACL</v>
-      </c>
-      <c r="P58" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>Conference Paper</v>
-      </c>
-      <c r="B59" t="str">
-        <v>Juuti M,Gröndahl T,Flanagan A,Asokan N</v>
-      </c>
-      <c r="C59" t="str">
-        <v>Cohn T,He Y,Liu Y</v>
-      </c>
-      <c r="D59" t="str">
-        <v>A little goes a long way: Improving toxic language classification despite data scarcity</v>
-      </c>
-      <c r="E59" t="str">
-        <v/>
-      </c>
-      <c r="F59" t="str">
-        <v>2020</v>
-      </c>
-      <c r="G59" t="str">
-        <v>EMNLP 2020</v>
-      </c>
-      <c r="H59" t="str">
-        <v/>
-      </c>
-      <c r="I59" t="str">
-        <v>2991-3009</v>
-      </c>
-      <c r="J59" t="str">
-        <v>Association for Computational Linguistics</v>
-      </c>
-      <c r="K59" t="str">
-        <v>Findings of the Association for Computational Linguistics: EMNLP 2020, Online Event, 16-20 November 2020</v>
-      </c>
-      <c r="L59" t="str">
-        <v>2020</v>
-      </c>
-      <c r="M59" t="str">
-        <v>https://doi.org/10.18653/v1/2020.findings-emnlp.269;http://dx.doi.org/10.18653/V1/2020.FINDINGS-EMNLP.269</v>
-      </c>
-      <c r="N59" t="str">
-        <v>10.18653/V1/2020.FINDINGS-EMNLP.269</v>
-      </c>
-      <c r="O59" t="str">
-        <v>Findings of ACL</v>
-      </c>
-      <c r="P59" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>Conference Paper</v>
-      </c>
-      <c r="B60" t="str">
-        <v>Radfar B,Shivaram K,Culotta A</v>
-      </c>
-      <c r="C60" t="str">
-        <v>Choudhury M,Chunara R,Culotta A,Welles BF</v>
-      </c>
-      <c r="D60" t="str">
-        <v>Characterizing Variation in Toxic Language by Social Context</v>
-      </c>
-      <c r="E60" t="str">
-        <v/>
-      </c>
-      <c r="F60" t="str">
-        <v>2020</v>
-      </c>
-      <c r="G60" t="str">
-        <v/>
-      </c>
-      <c r="H60" t="str">
-        <v/>
-      </c>
-      <c r="I60" t="str">
-        <v>959-963</v>
-      </c>
-      <c r="J60" t="str">
-        <v>AAAI Press</v>
-      </c>
-      <c r="K60" t="str">
-        <v>Proceedings of the Fourteenth International AAAI Conference on Web and Social Media, ICWSM 2020, Held Virtually, Original Venue: Atlanta, Georgia, USA, June 8-11, 2020</v>
-      </c>
-      <c r="L60" t="str">
-        <v>2020</v>
-      </c>
-      <c r="M60" t="str">
-        <v>https://ojs.aaai.org/index.php/ICWSM/article/view/7366</v>
-      </c>
-      <c r="N60" t="str">
-        <v/>
-      </c>
-      <c r="O60" t="str">
-        <v/>
-      </c>
-      <c r="P60" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>Conference Paper</v>
-      </c>
-      <c r="B61" t="str">
-        <v>Leite JA,Silva DF,Bontcheva K,Scarton C</v>
-      </c>
-      <c r="C61" t="str">
-        <v>Wong KF,Knight K,Wu H</v>
-      </c>
-      <c r="D61" t="str">
-        <v>Toxic Language Detection in Social Media for Brazilian Portuguese: New Dataset and Multilingual Analysis</v>
-      </c>
-      <c r="E61" t="str">
-        <v/>
-      </c>
-      <c r="F61" t="str">
-        <v>2020</v>
-      </c>
-      <c r="G61" t="str">
-        <v/>
-      </c>
-      <c r="H61" t="str">
-        <v/>
-      </c>
-      <c r="I61" t="str">
-        <v>914-924</v>
-      </c>
-      <c r="J61" t="str">
-        <v>Association for Computational Linguistics</v>
-      </c>
-      <c r="K61" t="str">
-        <v>Proceedings of the 1st Conference of the Asia-Pacific Chapter of the Association for Computational Linguistics and the 10th International Joint Conference on Natural Language Processing, AACL/IJCNLP 2020, Suzhou, China, December 4-7, 2020</v>
-      </c>
-      <c r="L61" t="str">
-        <v>2020</v>
-      </c>
-      <c r="M61" t="str">
-        <v>https://aclanthology.org/2020.aacl-main.91/</v>
-      </c>
-      <c r="N61" t="str">
-        <v/>
-      </c>
-      <c r="O61" t="str">
-        <v/>
-      </c>
-      <c r="P61" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>Conference Paper</v>
-      </c>
-      <c r="B62" t="str">
-        <v>Makhnytkina O,Matveev A,Bogoradnikova D,Lizunova I,Maltseva A,Shilkina N</v>
-      </c>
-      <c r="C62" t="str">
-        <v>Karpov A,Potapova R</v>
-      </c>
-      <c r="D62" t="str">
-        <v>Detection of Toxic Language in Short Text Messages</v>
-      </c>
-      <c r="E62" t="str">
-        <v/>
-      </c>
-      <c r="F62" t="str">
-        <v>2020</v>
-      </c>
-      <c r="G62" t="str">
-        <v>12335</v>
-      </c>
-      <c r="H62" t="str">
-        <v/>
-      </c>
-      <c r="I62" t="str">
-        <v>315-325</v>
-      </c>
-      <c r="J62" t="str">
-        <v>Springer</v>
-      </c>
-      <c r="K62" t="str">
-        <v>Speech and Computer - 22nd International Conference, SPECOM 2020, St. Petersburg, Russia, October 7-9, 2020, Proceedings</v>
-      </c>
-      <c r="L62" t="str">
-        <v>2020</v>
-      </c>
-      <c r="M62" t="str">
-        <v>https://doi.org/10.1007/978-3-030-60276-5_31;http://dx.doi.org/10.1007/978-3-030-60276-5_31</v>
-      </c>
-      <c r="N62" t="str">
-        <v>10.1007/978-3-030-60276-5_31</v>
-      </c>
-      <c r="O62" t="str">
-        <v>Lecture Notes in Computer Science</v>
-      </c>
-      <c r="P62" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B63" t="str">
-        <v>Gehman S,Gururangan S,Sap M,Choi Y,Smith NA</v>
-      </c>
-      <c r="C63" t="str">
-        <v/>
-      </c>
-      <c r="D63" t="str">
-        <v>RealToxicityPrompts: Evaluating Neural Toxic Degeneration in Language Models</v>
-      </c>
-      <c r="E63" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F63" t="str">
-        <v>2020</v>
-      </c>
-      <c r="G63" t="str">
-        <v>abs/2009.11462</v>
-      </c>
-      <c r="H63" t="str">
-        <v/>
-      </c>
-      <c r="I63" t="str">
-        <v/>
-      </c>
-      <c r="J63" t="str">
-        <v/>
-      </c>
-      <c r="K63" t="str">
-        <v/>
-      </c>
-      <c r="L63" t="str">
-        <v>2020</v>
-      </c>
-      <c r="M63" t="str">
-        <v>https://arxiv.org/abs/2009.11462</v>
-      </c>
-      <c r="N63" t="str">
-        <v/>
-      </c>
-      <c r="O63" t="str">
-        <v/>
-      </c>
-      <c r="P63" t="str">
-        <v>2009.11462</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B64" t="str">
-        <v>Juuti M,Gröndahl T,Flanagan A,Asokan N</v>
-      </c>
-      <c r="C64" t="str">
-        <v/>
-      </c>
-      <c r="D64" t="str">
-        <v>A little goes a long way: Improving toxic language classification despite data scarcity</v>
-      </c>
-      <c r="E64" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F64" t="str">
-        <v>2020</v>
-      </c>
-      <c r="G64" t="str">
-        <v>abs/2009.12344</v>
-      </c>
-      <c r="H64" t="str">
-        <v/>
-      </c>
-      <c r="I64" t="str">
-        <v/>
-      </c>
-      <c r="J64" t="str">
-        <v/>
-      </c>
-      <c r="K64" t="str">
-        <v/>
-      </c>
-      <c r="L64" t="str">
-        <v>2020</v>
-      </c>
-      <c r="M64" t="str">
-        <v>https://arxiv.org/abs/2009.12344</v>
-      </c>
-      <c r="N64" t="str">
-        <v/>
-      </c>
-      <c r="O64" t="str">
-        <v/>
-      </c>
-      <c r="P64" t="str">
-        <v>2009.12344</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B65" t="str">
-        <v>Leite JA,Silva DF,Bontcheva K,Scarton C</v>
-      </c>
-      <c r="C65" t="str">
-        <v/>
-      </c>
-      <c r="D65" t="str">
-        <v>Toxic Language Detection in Social Media for Brazilian Portuguese: New Dataset and Multilingual Analysis</v>
-      </c>
-      <c r="E65" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F65" t="str">
-        <v>2020</v>
-      </c>
-      <c r="G65" t="str">
-        <v>abs/2010.04543</v>
-      </c>
-      <c r="H65" t="str">
-        <v/>
-      </c>
-      <c r="I65" t="str">
-        <v/>
-      </c>
-      <c r="J65" t="str">
-        <v/>
-      </c>
-      <c r="K65" t="str">
-        <v/>
-      </c>
-      <c r="L65" t="str">
-        <v>2020</v>
-      </c>
-      <c r="M65" t="str">
-        <v>https://arxiv.org/abs/2010.04543</v>
-      </c>
-      <c r="N65" t="str">
-        <v/>
-      </c>
-      <c r="O65" t="str">
-        <v/>
-      </c>
-      <c r="P65" t="str">
         <v>2010.04543</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>Conference Paper</v>
-      </c>
-      <c r="B66" t="str">
-        <v>Rybinski M,Miller W,Ser J,Bilbao MN,Montes JF</v>
-      </c>
-      <c r="C66" t="str">
-        <v>Ser J,Osaba E,Bilbao MN,Medina JJ,Vecchio M,Yang XS</v>
-      </c>
-      <c r="D66" t="str">
-        <v>On the Design and Tuning of Machine Learning Models for Language Toxicity Classification in Online Platforms</v>
-      </c>
-      <c r="E66" t="str">
-        <v/>
-      </c>
-      <c r="F66" t="str">
-        <v>2018</v>
-      </c>
-      <c r="G66" t="str">
-        <v>798</v>
-      </c>
-      <c r="H66" t="str">
-        <v/>
-      </c>
-      <c r="I66" t="str">
-        <v>329-343</v>
-      </c>
-      <c r="J66" t="str">
-        <v>Springer</v>
-      </c>
-      <c r="K66" t="str">
-        <v>Intelligent Distributed Computing XII, 12th International Symposium on Intelligent Distributed Computing, IDC 2018, Bilbao, Spain, 15-17 October 2018</v>
-      </c>
-      <c r="L66" t="str">
-        <v>2018</v>
-      </c>
-      <c r="M66" t="str">
-        <v>https://doi.org/10.1007/978-3-319-99626-4_29;http://dx.doi.org/10.1007/978-3-319-99626-4_29</v>
-      </c>
-      <c r="N66" t="str">
-        <v>10.1007/978-3-319-99626-4_29</v>
-      </c>
-      <c r="O66" t="str">
-        <v>Studies in Computational Intelligence</v>
-      </c>
-      <c r="P66" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Journal Article</v>
-      </c>
-      <c r="B67" t="str">
-        <v>Rodriguez N,Galeano SR</v>
-      </c>
-      <c r="C67" t="str">
-        <v/>
-      </c>
-      <c r="D67" t="str">
-        <v>Shielding Google's language toxicity model against adversarial attacks</v>
-      </c>
-      <c r="E67" t="str">
-        <v>CoRR</v>
-      </c>
-      <c r="F67" t="str">
-        <v>2018</v>
-      </c>
-      <c r="G67" t="str">
-        <v>abs/1801.01828</v>
-      </c>
-      <c r="H67" t="str">
-        <v/>
-      </c>
-      <c r="I67" t="str">
-        <v/>
-      </c>
-      <c r="J67" t="str">
-        <v/>
-      </c>
-      <c r="K67" t="str">
-        <v/>
-      </c>
-      <c r="L67" t="str">
-        <v>2018</v>
-      </c>
-      <c r="M67" t="str">
-        <v>http://arxiv.org/abs/1801.01828</v>
-      </c>
-      <c r="N67" t="str">
-        <v/>
-      </c>
-      <c r="O67" t="str">
-        <v/>
-      </c>
-      <c r="P67" t="str">
-        <v>1801.01828</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>Conference Paper</v>
-      </c>
-      <c r="B68" t="str">
-        <v>Mohan S,Guha A,Harris M,Popowich F,Schuster A,Priebe C</v>
-      </c>
-      <c r="C68" t="str">
-        <v>Mouhoub M,Langlais P</v>
-      </c>
-      <c r="D68" t="str">
-        <v>The Impact of Toxic Language on the Health of Reddit Communities</v>
-      </c>
-      <c r="E68" t="str">
-        <v/>
-      </c>
-      <c r="F68" t="str">
-        <v>2017</v>
-      </c>
-      <c r="G68" t="str">
-        <v>10233</v>
-      </c>
-      <c r="H68" t="str">
-        <v/>
-      </c>
-      <c r="I68" t="str">
-        <v>51-56</v>
-      </c>
-      <c r="J68" t="str">
-        <v/>
-      </c>
-      <c r="K68" t="str">
-        <v>Advances in Artificial Intelligence - 30th Canadian Conference on Artificial Intelligence, Canadian AI 2017, Edmonton, AB, Canada, May 16-19, 2017, Proceedings</v>
-      </c>
-      <c r="L68" t="str">
-        <v>2017</v>
-      </c>
-      <c r="M68" t="str">
-        <v>https://doi.org/10.1007/978-3-319-57351-9_6;http://dx.doi.org/10.1007/978-3-319-57351-9_6</v>
-      </c>
-      <c r="N68" t="str">
-        <v>10.1007/978-3-319-57351-9_6</v>
-      </c>
-      <c r="O68" t="str">
-        <v>Lecture Notes in Computer Science</v>
-      </c>
-      <c r="P68" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Conference Paper</v>
-      </c>
-      <c r="B69" t="str">
-        <v>Miller B,van den Bosch A,Kunzelman C,Olive J,Stoop W,Gray K,Berger C,Pokharel S</v>
-      </c>
-      <c r="C69" t="str">
-        <v>Eder M,Rybicki J</v>
-      </c>
-      <c r="D69" t="str">
-        <v>Notoriously Toxic: The Language and Cost of Hate in the Chat Systems of Online Games</v>
-      </c>
-      <c r="E69" t="str">
-        <v/>
-      </c>
-      <c r="F69" t="str">
-        <v>2016</v>
-      </c>
-      <c r="G69" t="str">
-        <v/>
-      </c>
-      <c r="H69" t="str">
-        <v/>
-      </c>
-      <c r="I69" t="str">
-        <v>840-842</v>
-      </c>
-      <c r="J69" t="str">
-        <v>Alliance of Digital Humanities Organizations (ADHO)</v>
-      </c>
-      <c r="K69" t="str">
-        <v>11th Annual International Conference of the Alliance of Digital Humanities Organizations, DH 2016, Krakow, Poland, July 11-16, 2016, Conference Abstracts</v>
-      </c>
-      <c r="L69" t="str">
-        <v>2016</v>
-      </c>
-      <c r="M69" t="str">
-        <v>http://dh2016.adho.org/abstracts/208</v>
-      </c>
-      <c r="N69" t="str">
-        <v/>
-      </c>
-      <c r="O69" t="str">
-        <v/>
-      </c>
-      <c r="P69" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P45"/>
   </ignoredErrors>
 </worksheet>
 </file>